--- a/COVID-Data-2020/COVID_FINAL_DATA.xlsx
+++ b/COVID-Data-2020/COVID_FINAL_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD/Projects/Covid-19-Analysis-Pakistan/COVID-Data-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258303B4-B129-BA4F-96B1-FDC8C9149152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CEABDB-C0CC-3A46-A4D8-7A8225855F4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="450">
   <si>
     <t>Cumulative</t>
   </si>
@@ -1527,10 +1527,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$]d\.m\.yy;@" x16r2:formatCode16="[$-en-AL,1]d\.m\.yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1592,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1615,10 +1614,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1961,10 +1956,10 @@
   <dimension ref="A1:L644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomRight" activeCell="G649" sqref="G649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1973,7 +1968,7 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -1993,7 +1988,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2031,7 +2026,7 @@
       <c r="D2">
         <v>80</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="3">
         <v>43901</v>
       </c>
       <c r="F2">
@@ -2066,7 +2061,7 @@
       <c r="D3">
         <v>95</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="3">
         <v>43901</v>
       </c>
       <c r="F3">
@@ -2101,7 +2096,7 @@
       <c r="D4">
         <v>171</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="3">
         <v>43901</v>
       </c>
       <c r="F4">
@@ -2136,7 +2131,7 @@
       <c r="D5">
         <v>28</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="3">
         <v>43901</v>
       </c>
       <c r="F5">
@@ -2171,7 +2166,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="3">
         <v>43901</v>
       </c>
       <c r="F6">
@@ -2206,7 +2201,7 @@
       <c r="D7">
         <v>18</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="3">
         <v>43901</v>
       </c>
       <c r="F7">
@@ -2241,7 +2236,7 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="3">
         <v>43901</v>
       </c>
       <c r="F8">
@@ -2276,7 +2271,7 @@
       <c r="D9">
         <v>26</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="3">
         <v>43901</v>
       </c>
       <c r="F9">
@@ -2311,7 +2306,7 @@
       <c r="D10">
         <v>85</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="3">
         <v>43902</v>
       </c>
       <c r="F10">
@@ -2346,7 +2341,7 @@
       <c r="D11">
         <v>105</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="3">
         <v>43902</v>
       </c>
       <c r="F11">
@@ -2381,7 +2376,7 @@
       <c r="D12">
         <v>198</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="3">
         <v>43902</v>
       </c>
       <c r="F12">
@@ -2416,7 +2411,7 @@
       <c r="D13">
         <v>29</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="3">
         <v>43902</v>
       </c>
       <c r="F13">
@@ -2451,7 +2446,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="3">
         <v>43902</v>
       </c>
       <c r="F14">
@@ -2486,7 +2481,7 @@
       <c r="D15">
         <v>18</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="3">
         <v>43902</v>
       </c>
       <c r="F15">
@@ -2521,7 +2516,7 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="3">
         <v>43902</v>
       </c>
       <c r="F16">
@@ -2556,7 +2551,7 @@
       <c r="D17">
         <v>28</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="3">
         <v>43902</v>
       </c>
       <c r="F17">
@@ -2591,7 +2586,7 @@
       <c r="D18">
         <v>92</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="3">
         <v>43903</v>
       </c>
       <c r="F18">
@@ -2626,7 +2621,7 @@
       <c r="D19">
         <v>110</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="3">
         <v>43903</v>
       </c>
       <c r="F19">
@@ -2661,7 +2656,7 @@
       <c r="D20">
         <v>240</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="3">
         <v>43903</v>
       </c>
       <c r="F20">
@@ -2696,7 +2691,7 @@
       <c r="D21">
         <v>30</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="3">
         <v>43903</v>
       </c>
       <c r="F21">
@@ -2731,7 +2726,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="3">
         <v>43903</v>
       </c>
       <c r="F22">
@@ -2766,7 +2761,7 @@
       <c r="D23">
         <v>18</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="3">
         <v>43903</v>
       </c>
       <c r="F23">
@@ -2801,7 +2796,7 @@
       <c r="D24">
         <v>9</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="3">
         <v>43903</v>
       </c>
       <c r="F24">
@@ -2836,7 +2831,7 @@
       <c r="D25">
         <v>32</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="3">
         <v>43903</v>
       </c>
       <c r="F25">
@@ -2871,7 +2866,7 @@
       <c r="D26">
         <v>99</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="3">
         <v>43904</v>
       </c>
       <c r="F26">
@@ -2906,7 +2901,7 @@
       <c r="D27">
         <v>116</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="3">
         <v>43904</v>
       </c>
       <c r="F27">
@@ -2941,7 +2936,7 @@
       <c r="D28">
         <v>282</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="3">
         <v>43904</v>
       </c>
       <c r="F28">
@@ -2976,7 +2971,7 @@
       <c r="D29">
         <v>31</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="3">
         <v>43904</v>
       </c>
       <c r="F29">
@@ -3011,7 +3006,7 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="3">
         <v>43904</v>
       </c>
       <c r="F30">
@@ -3046,7 +3041,7 @@
       <c r="D31">
         <v>35</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="3">
         <v>43904</v>
       </c>
       <c r="F31">
@@ -3081,7 +3076,7 @@
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="3">
         <v>43904</v>
       </c>
       <c r="F32">
@@ -3116,7 +3111,7 @@
       <c r="D33">
         <v>36</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="3">
         <v>43904</v>
       </c>
       <c r="F33">
@@ -3151,7 +3146,7 @@
       <c r="D34">
         <v>115</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="3">
         <v>43905</v>
       </c>
       <c r="F34">
@@ -3186,7 +3181,7 @@
       <c r="D35">
         <v>126</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="3">
         <v>43905</v>
       </c>
       <c r="F35">
@@ -3221,7 +3216,7 @@
       <c r="D36">
         <v>315</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="3">
         <v>43905</v>
       </c>
       <c r="F36">
@@ -3256,7 +3251,7 @@
       <c r="D37">
         <v>32</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="3">
         <v>43905</v>
       </c>
       <c r="F37">
@@ -3291,7 +3286,7 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="3">
         <v>43905</v>
       </c>
       <c r="F38">
@@ -3326,7 +3321,7 @@
       <c r="D39">
         <v>42</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="3">
         <v>43905</v>
       </c>
       <c r="F39">
@@ -3361,7 +3356,7 @@
       <c r="D40">
         <v>11</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="3">
         <v>43905</v>
       </c>
       <c r="F40">
@@ -3396,7 +3391,7 @@
       <c r="D41">
         <v>45</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="3">
         <v>43905</v>
       </c>
       <c r="F41">
@@ -3431,7 +3426,7 @@
       <c r="D42">
         <v>147</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="3">
         <v>43906</v>
       </c>
       <c r="F42">
@@ -3466,7 +3461,7 @@
       <c r="D43">
         <v>166</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="3">
         <v>43906</v>
       </c>
       <c r="F43">
@@ -3501,7 +3496,7 @@
       <c r="D44">
         <v>364</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="3">
         <v>43906</v>
       </c>
       <c r="F44">
@@ -3536,7 +3531,7 @@
       <c r="D45">
         <v>32</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="3">
         <v>43906</v>
       </c>
       <c r="F45">
@@ -3571,7 +3566,7 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="3">
         <v>43906</v>
       </c>
       <c r="F46">
@@ -3606,7 +3601,7 @@
       <c r="D47">
         <v>40</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="3">
         <v>43906</v>
       </c>
       <c r="F47">
@@ -3641,7 +3636,7 @@
       <c r="D48">
         <v>11</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="3">
         <v>43906</v>
       </c>
       <c r="F48">
@@ -3676,7 +3671,7 @@
       <c r="D49">
         <v>45</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="3">
         <v>43906</v>
       </c>
       <c r="F49">
@@ -3711,7 +3706,7 @@
       <c r="D50">
         <v>28</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="3">
         <v>43906</v>
       </c>
       <c r="F50">
@@ -3746,8 +3741,8 @@
       <c r="D51">
         <v>581</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>16</v>
+      <c r="E51" s="3">
+        <v>43907</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3781,7 +3776,7 @@
       <c r="D52">
         <v>166</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="3">
         <v>43907</v>
       </c>
       <c r="F52">
@@ -3816,7 +3811,7 @@
       <c r="D53">
         <v>554</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="3">
         <v>43907</v>
       </c>
       <c r="F53">
@@ -3851,7 +3846,7 @@
       <c r="D54">
         <v>51</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="3">
         <v>43907</v>
       </c>
       <c r="F54">
@@ -3886,7 +3881,7 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="3">
         <v>43907</v>
       </c>
       <c r="F55">
@@ -3921,7 +3916,7 @@
       <c r="D56">
         <v>163</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="3">
         <v>43907</v>
       </c>
       <c r="F56">
@@ -3956,7 +3951,7 @@
       <c r="D57">
         <v>11</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="3">
         <v>43907</v>
       </c>
       <c r="F57">
@@ -3991,7 +3986,7 @@
       <c r="D58">
         <v>45</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="3">
         <v>43907</v>
       </c>
       <c r="F58">
@@ -4026,7 +4021,7 @@
       <c r="D59">
         <v>627</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="3">
         <v>43908</v>
       </c>
       <c r="F59">
@@ -4061,7 +4056,7 @@
       <c r="D60">
         <v>133</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="3">
         <v>43908</v>
       </c>
       <c r="F60">
@@ -4096,7 +4091,7 @@
       <c r="D61">
         <v>606</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="3">
         <v>43908</v>
       </c>
       <c r="F61">
@@ -4131,7 +4126,7 @@
       <c r="D62">
         <v>42</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="3">
         <v>43908</v>
       </c>
       <c r="F62">
@@ -4166,7 +4161,7 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="3">
         <v>43908</v>
       </c>
       <c r="F63">
@@ -4201,7 +4196,7 @@
       <c r="D64">
         <v>151</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="3">
         <v>43908</v>
       </c>
       <c r="F64">
@@ -4236,7 +4231,7 @@
       <c r="D65">
         <v>11</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="3">
         <v>43908</v>
       </c>
       <c r="F65">
@@ -4271,7 +4266,7 @@
       <c r="D66">
         <v>51</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="3">
         <v>43908</v>
       </c>
       <c r="F66">
@@ -4306,8 +4301,8 @@
       <c r="D67">
         <v>184</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>18</v>
+      <c r="E67" s="3">
+        <v>43909</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -4341,7 +4336,7 @@
       <c r="D68">
         <v>254</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="3">
         <v>43909</v>
       </c>
       <c r="F68">
@@ -4376,7 +4371,7 @@
       <c r="D69">
         <v>908</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="3">
         <v>43909</v>
       </c>
       <c r="F69">
@@ -4411,7 +4406,7 @@
       <c r="D70">
         <v>67</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="3">
         <v>43909</v>
       </c>
       <c r="F70">
@@ -4446,7 +4441,7 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="3">
         <v>43909</v>
       </c>
       <c r="F71">
@@ -4481,7 +4476,7 @@
       <c r="D72">
         <v>637</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="3">
         <v>43909</v>
       </c>
       <c r="F72">
@@ -4516,7 +4511,7 @@
       <c r="D73">
         <v>23</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="3">
         <v>43909</v>
       </c>
       <c r="F73">
@@ -4551,7 +4546,7 @@
       <c r="D74">
         <v>90</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="3">
         <v>43909</v>
       </c>
       <c r="F74">
@@ -4586,7 +4581,7 @@
       <c r="D75">
         <v>277</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="3">
         <v>43910</v>
       </c>
       <c r="F75">
@@ -4621,8 +4616,8 @@
       <c r="D76">
         <v>872</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>19</v>
+      <c r="E76" s="3">
+        <v>43910</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4656,7 +4651,7 @@
       <c r="D77">
         <v>1210</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="3">
         <v>43910</v>
       </c>
       <c r="F77">
@@ -4691,7 +4686,7 @@
       <c r="D78">
         <v>67</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="3">
         <v>43910</v>
       </c>
       <c r="F78">
@@ -4726,7 +4721,7 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="3">
         <v>43910</v>
       </c>
       <c r="F79">
@@ -4761,7 +4756,7 @@
       <c r="D80">
         <v>805</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="3">
         <v>43910</v>
       </c>
       <c r="F80">
@@ -4796,7 +4791,7 @@
       <c r="D81">
         <v>36</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="3">
         <v>43910</v>
       </c>
       <c r="F81">
@@ -4831,7 +4826,7 @@
       <c r="D82">
         <v>143</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="3">
         <v>43910</v>
       </c>
       <c r="F82">
@@ -4866,8 +4861,8 @@
       <c r="D83">
         <v>325</v>
       </c>
-      <c r="E83" s="17" t="s">
-        <v>20</v>
+      <c r="E83" s="3">
+        <v>43911</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -4901,8 +4896,8 @@
       <c r="D84">
         <v>894</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>20</v>
+      <c r="E84" s="3">
+        <v>43911</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4936,7 +4931,7 @@
       <c r="D85">
         <v>1497</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="3">
         <v>43911</v>
       </c>
       <c r="F85">
@@ -4971,7 +4966,7 @@
       <c r="D86">
         <v>130</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="3">
         <v>43911</v>
       </c>
       <c r="F86">
@@ -5006,7 +5001,7 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="3">
         <v>43911</v>
       </c>
       <c r="F87">
@@ -5041,7 +5036,7 @@
       <c r="D88">
         <v>805</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="3">
         <v>43911</v>
       </c>
       <c r="F88">
@@ -5076,8 +5071,8 @@
       <c r="D89">
         <v>40</v>
       </c>
-      <c r="E89" s="17" t="s">
-        <v>20</v>
+      <c r="E89" s="3">
+        <v>43911</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5111,7 +5106,7 @@
       <c r="D90">
         <v>310</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="3">
         <v>43911</v>
       </c>
       <c r="F90">
@@ -5146,7 +5141,7 @@
       <c r="D91">
         <v>366</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="3">
         <v>43912</v>
       </c>
       <c r="F91">
@@ -5181,7 +5176,7 @@
       <c r="D92">
         <v>1361</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="3">
         <v>43912</v>
       </c>
       <c r="F92">
@@ -5216,7 +5211,7 @@
       <c r="D93">
         <v>1497</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="3">
         <v>43912</v>
       </c>
       <c r="F93">
@@ -5251,7 +5246,7 @@
       <c r="D94">
         <v>264</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="3">
         <v>43912</v>
       </c>
       <c r="F94">
@@ -5286,7 +5281,7 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="3">
         <v>43912</v>
       </c>
       <c r="F95">
@@ -5321,7 +5316,7 @@
       <c r="D96">
         <v>1380</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="3">
         <v>43912</v>
       </c>
       <c r="F96">
@@ -5356,7 +5351,7 @@
       <c r="D97">
         <v>42</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="3">
         <v>43912</v>
       </c>
       <c r="F97">
@@ -5391,7 +5386,7 @@
       <c r="D98">
         <v>315</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="3">
         <v>43912</v>
       </c>
       <c r="F98">
@@ -5426,8 +5421,8 @@
       <c r="D99">
         <v>404</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>22</v>
+      <c r="E99" s="3">
+        <v>43913</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -5461,7 +5456,7 @@
       <c r="D100">
         <v>1436</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="3">
         <v>43913</v>
       </c>
       <c r="F100">
@@ -5496,7 +5491,7 @@
       <c r="D101">
         <v>1512</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="3">
         <v>43913</v>
       </c>
       <c r="F101">
@@ -5531,7 +5526,7 @@
       <c r="D102">
         <v>305</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="3">
         <v>43913</v>
       </c>
       <c r="F102">
@@ -5566,7 +5561,7 @@
       <c r="D103">
         <v>1405</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="3">
         <v>43913</v>
       </c>
       <c r="F103">
@@ -5601,7 +5596,7 @@
       <c r="D104">
         <v>44</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E104" s="3">
         <v>43913</v>
       </c>
       <c r="F104">
@@ -5636,7 +5631,7 @@
       <c r="D105">
         <v>338</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="3">
         <v>43913</v>
       </c>
       <c r="F105">
@@ -5671,7 +5666,7 @@
       <c r="D106">
         <v>427</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="3">
         <v>43914</v>
       </c>
       <c r="F106">
@@ -5706,7 +5701,7 @@
       <c r="D107">
         <v>1436</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="3">
         <v>43914</v>
       </c>
       <c r="F107">
@@ -5741,8 +5736,8 @@
       <c r="D108">
         <v>1579</v>
       </c>
-      <c r="E108" s="17" t="s">
-        <v>23</v>
+      <c r="E108" s="3">
+        <v>43914</v>
       </c>
       <c r="F108">
         <v>4</v>
@@ -5776,7 +5771,7 @@
       <c r="D109">
         <v>448</v>
       </c>
-      <c r="E109" s="17">
+      <c r="E109" s="3">
         <v>43914</v>
       </c>
       <c r="F109">
@@ -5811,7 +5806,7 @@
       <c r="D110">
         <v>1407</v>
       </c>
-      <c r="E110" s="17">
+      <c r="E110" s="3">
         <v>43914</v>
       </c>
       <c r="F110">
@@ -5846,7 +5841,7 @@
       <c r="D111">
         <v>60</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="3">
         <v>43914</v>
       </c>
       <c r="F111">
@@ -5881,7 +5876,7 @@
       <c r="D112">
         <v>500</v>
       </c>
-      <c r="E112" s="17">
+      <c r="E112" s="3">
         <v>43914</v>
       </c>
       <c r="F112">
@@ -5916,7 +5911,7 @@
       <c r="D113">
         <v>459</v>
       </c>
-      <c r="E113" s="17">
+      <c r="E113" s="3">
         <v>43915</v>
       </c>
       <c r="F113">
@@ -5951,7 +5946,7 @@
       <c r="D114">
         <v>1436</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="3">
         <v>43915</v>
       </c>
       <c r="F114">
@@ -5986,7 +5981,7 @@
       <c r="D115">
         <v>1579</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="3">
         <v>43915</v>
       </c>
       <c r="F115">
@@ -6021,7 +6016,7 @@
       <c r="D116">
         <v>566</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="3">
         <v>43915</v>
       </c>
       <c r="F116">
@@ -6056,7 +6051,7 @@
       <c r="D117">
         <v>1437</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="3">
         <v>43915</v>
       </c>
       <c r="F117">
@@ -6091,7 +6086,7 @@
       <c r="D118">
         <v>66</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="3">
         <v>43915</v>
       </c>
       <c r="F118">
@@ -6126,7 +6121,7 @@
       <c r="D119">
         <v>580</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E119" s="3">
         <v>43915</v>
       </c>
       <c r="F119">
@@ -6161,7 +6156,7 @@
       <c r="D120">
         <v>561</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E120" s="3">
         <v>43916</v>
       </c>
       <c r="F120">
@@ -6196,8 +6191,8 @@
       <c r="D121">
         <v>1436</v>
       </c>
-      <c r="E121" s="17" t="s">
-        <v>25</v>
+      <c r="E121" s="3">
+        <v>43916</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -6231,8 +6226,8 @@
       <c r="D122">
         <v>1592</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>25</v>
+      <c r="E122" s="3">
+        <v>43916</v>
       </c>
       <c r="F122">
         <v>14</v>
@@ -6266,8 +6261,8 @@
       <c r="D123">
         <v>704</v>
       </c>
-      <c r="E123" s="17" t="s">
-        <v>25</v>
+      <c r="E123" s="3">
+        <v>43916</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -6301,8 +6296,8 @@
       <c r="D124">
         <v>1455</v>
       </c>
-      <c r="E124" s="17" t="s">
-        <v>25</v>
+      <c r="E124" s="3">
+        <v>43916</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -6336,8 +6331,8 @@
       <c r="D125">
         <v>77</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>25</v>
+      <c r="E125" s="3">
+        <v>43916</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -6371,8 +6366,8 @@
       <c r="D126">
         <v>624</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>25</v>
+      <c r="E126" s="3">
+        <v>43916</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -6406,8 +6401,8 @@
       <c r="D127">
         <v>712</v>
       </c>
-      <c r="E127" s="17" t="s">
-        <v>26</v>
+      <c r="E127" s="3">
+        <v>43917</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -6441,8 +6436,8 @@
       <c r="D128">
         <v>2257</v>
       </c>
-      <c r="E128" s="17" t="s">
-        <v>26</v>
+      <c r="E128" s="3">
+        <v>43917</v>
       </c>
       <c r="F128">
         <v>3</v>
@@ -6476,8 +6471,8 @@
       <c r="D129">
         <v>1592</v>
       </c>
-      <c r="E129" s="17" t="s">
-        <v>26</v>
+      <c r="E129" s="3">
+        <v>43917</v>
       </c>
       <c r="F129">
         <v>14</v>
@@ -6511,8 +6506,8 @@
       <c r="D130">
         <v>917</v>
       </c>
-      <c r="E130" s="17" t="s">
-        <v>26</v>
+      <c r="E130" s="3">
+        <v>43917</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -6546,8 +6541,8 @@
       <c r="D131">
         <v>1512</v>
       </c>
-      <c r="E131" s="17" t="s">
-        <v>26</v>
+      <c r="E131" s="3">
+        <v>43917</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -6581,8 +6576,8 @@
       <c r="D132">
         <v>83</v>
       </c>
-      <c r="E132" s="17" t="s">
-        <v>26</v>
+      <c r="E132" s="3">
+        <v>43917</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -6616,8 +6611,8 @@
       <c r="D133">
         <v>762</v>
       </c>
-      <c r="E133" s="17" t="s">
-        <v>26</v>
+      <c r="E133" s="3">
+        <v>43917</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -6651,8 +6646,8 @@
       <c r="D134">
         <v>1056</v>
       </c>
-      <c r="E134" s="17" t="s">
-        <v>27</v>
+      <c r="E134" s="3">
+        <v>43918</v>
       </c>
       <c r="F134">
         <v>2</v>
@@ -6686,8 +6681,8 @@
       <c r="D135">
         <v>3310</v>
       </c>
-      <c r="E135" s="17" t="s">
-        <v>27</v>
+      <c r="E135" s="3">
+        <v>43918</v>
       </c>
       <c r="F135">
         <v>4</v>
@@ -6721,8 +6716,8 @@
       <c r="D136">
         <v>5158</v>
       </c>
-      <c r="E136" s="17" t="s">
-        <v>27</v>
+      <c r="E136" s="3">
+        <v>43918</v>
       </c>
       <c r="F136">
         <v>14</v>
@@ -6756,8 +6751,8 @@
       <c r="D137">
         <v>1121</v>
       </c>
-      <c r="E137" s="17" t="s">
-        <v>27</v>
+      <c r="E137" s="3">
+        <v>43918</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6791,8 +6786,8 @@
       <c r="D138">
         <v>1657</v>
       </c>
-      <c r="E138" s="17" t="s">
-        <v>27</v>
+      <c r="E138" s="3">
+        <v>43918</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -6826,8 +6821,8 @@
       <c r="D139">
         <v>97</v>
       </c>
-      <c r="E139" s="17" t="s">
-        <v>27</v>
+      <c r="E139" s="3">
+        <v>43918</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6861,8 +6856,8 @@
       <c r="D140">
         <v>832</v>
       </c>
-      <c r="E140" s="17" t="s">
-        <v>27</v>
+      <c r="E140" s="3">
+        <v>43918</v>
       </c>
       <c r="F140">
         <v>3</v>
@@ -6896,8 +6891,8 @@
       <c r="D141">
         <v>1213</v>
       </c>
-      <c r="E141" s="17" t="s">
-        <v>28</v>
+      <c r="E141" s="3">
+        <v>43919</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -6934,8 +6929,8 @@
       <c r="D142">
         <v>3492</v>
       </c>
-      <c r="E142" s="17" t="s">
-        <v>28</v>
+      <c r="E142" s="3">
+        <v>43919</v>
       </c>
       <c r="F142">
         <v>4</v>
@@ -6972,8 +6967,8 @@
       <c r="D143">
         <v>5673</v>
       </c>
-      <c r="E143" s="17" t="s">
-        <v>28</v>
+      <c r="E143" s="3">
+        <v>43919</v>
       </c>
       <c r="F143">
         <v>14</v>
@@ -7010,8 +7005,8 @@
       <c r="D144">
         <v>1229</v>
       </c>
-      <c r="E144" s="17" t="s">
-        <v>28</v>
+      <c r="E144" s="3">
+        <v>43919</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -7048,8 +7043,8 @@
       <c r="D145">
         <v>1737</v>
       </c>
-      <c r="E145" s="17" t="s">
-        <v>28</v>
+      <c r="E145" s="3">
+        <v>43919</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -7086,8 +7081,8 @@
       <c r="D146">
         <v>97</v>
       </c>
-      <c r="E146" s="17" t="s">
-        <v>28</v>
+      <c r="E146" s="3">
+        <v>43919</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -7124,8 +7119,8 @@
       <c r="D147">
         <v>895</v>
       </c>
-      <c r="E147" s="17" t="s">
-        <v>28</v>
+      <c r="E147" s="3">
+        <v>43919</v>
       </c>
       <c r="F147">
         <v>4</v>
@@ -7162,7 +7157,7 @@
       <c r="D148">
         <v>1310</v>
       </c>
-      <c r="E148" s="17">
+      <c r="E148" s="3">
         <v>43920</v>
       </c>
       <c r="F148">
@@ -7200,7 +7195,7 @@
       <c r="D149">
         <v>3492</v>
       </c>
-      <c r="E149" s="17">
+      <c r="E149" s="3">
         <v>43920</v>
       </c>
       <c r="F149">
@@ -7238,7 +7233,7 @@
       <c r="D150">
         <v>5945</v>
       </c>
-      <c r="E150" s="17">
+      <c r="E150" s="3">
         <v>43920</v>
       </c>
       <c r="F150">
@@ -7276,7 +7271,7 @@
       <c r="D151">
         <v>1324</v>
       </c>
-      <c r="E151" s="17">
+      <c r="E151" s="3">
         <v>43920</v>
       </c>
       <c r="F151">
@@ -7314,7 +7309,7 @@
       <c r="D152">
         <v>1710</v>
       </c>
-      <c r="E152" s="17">
+      <c r="E152" s="3">
         <v>43920</v>
       </c>
       <c r="F152">
@@ -7352,7 +7347,7 @@
       <c r="D153">
         <v>105</v>
       </c>
-      <c r="E153" s="17">
+      <c r="E153" s="3">
         <v>43920</v>
       </c>
       <c r="F153">
@@ -7390,7 +7385,7 @@
       <c r="D154">
         <v>862</v>
       </c>
-      <c r="E154" s="17">
+      <c r="E154" s="3">
         <v>43920</v>
       </c>
       <c r="F154">
@@ -7428,7 +7423,7 @@
       <c r="D155">
         <v>1469</v>
       </c>
-      <c r="E155" s="17">
+      <c r="E155" s="3">
         <v>43921</v>
       </c>
       <c r="F155">
@@ -7466,7 +7461,7 @@
       <c r="D156">
         <v>2500</v>
       </c>
-      <c r="E156" s="17">
+      <c r="E156" s="3">
         <v>43921</v>
       </c>
       <c r="F156">
@@ -7504,7 +7499,7 @@
       <c r="D157">
         <v>6328</v>
       </c>
-      <c r="E157" s="17">
+      <c r="E157" s="3">
         <v>43921</v>
       </c>
       <c r="F157">
@@ -7542,7 +7537,7 @@
       <c r="D158">
         <v>1512</v>
       </c>
-      <c r="E158" s="17">
+      <c r="E158" s="3">
         <v>43921</v>
       </c>
       <c r="F158">
@@ -7580,7 +7575,7 @@
       <c r="D159">
         <v>1792</v>
       </c>
-      <c r="E159" s="17">
+      <c r="E159" s="3">
         <v>43921</v>
       </c>
       <c r="F159">
@@ -7618,7 +7613,7 @@
       <c r="D160">
         <v>177</v>
       </c>
-      <c r="E160" s="17">
+      <c r="E160" s="3">
         <v>43921</v>
       </c>
       <c r="F160">
@@ -7656,7 +7651,7 @@
       <c r="D161">
         <v>880</v>
       </c>
-      <c r="E161" s="17">
+      <c r="E161" s="3">
         <v>43921</v>
       </c>
       <c r="F161">
@@ -7694,7 +7689,7 @@
       <c r="D162">
         <v>1703</v>
       </c>
-      <c r="E162" s="17">
+      <c r="E162" s="3">
         <v>43922</v>
       </c>
       <c r="F162">
@@ -7732,7 +7727,7 @@
       <c r="D163">
         <v>2720</v>
       </c>
-      <c r="E163" s="17">
+      <c r="E163" s="3">
         <v>43922</v>
       </c>
       <c r="F163">
@@ -7770,7 +7765,7 @@
       <c r="D164">
         <v>6578</v>
       </c>
-      <c r="E164" s="17">
+      <c r="E164" s="3">
         <v>43922</v>
       </c>
       <c r="F164">
@@ -7808,7 +7803,7 @@
       <c r="D165">
         <v>1271</v>
       </c>
-      <c r="E165" s="17">
+      <c r="E165" s="3">
         <v>43922</v>
       </c>
       <c r="F165">
@@ -7846,7 +7841,7 @@
       <c r="D166">
         <v>1934</v>
       </c>
-      <c r="E166" s="17">
+      <c r="E166" s="3">
         <v>43922</v>
       </c>
       <c r="F166">
@@ -7884,7 +7879,7 @@
       <c r="D167">
         <v>239</v>
       </c>
-      <c r="E167" s="17">
+      <c r="E167" s="3">
         <v>43922</v>
       </c>
       <c r="F167">
@@ -7922,7 +7917,7 @@
       <c r="D168">
         <v>750</v>
       </c>
-      <c r="E168" s="17">
+      <c r="E168" s="3">
         <v>43922</v>
       </c>
       <c r="F168">
@@ -7960,7 +7955,7 @@
       <c r="D169">
         <v>1997</v>
       </c>
-      <c r="E169" s="17">
+      <c r="E169" s="3">
         <v>43923</v>
       </c>
       <c r="F169">
@@ -7998,7 +7993,7 @@
       <c r="D170">
         <v>2945</v>
       </c>
-      <c r="E170" s="17">
+      <c r="E170" s="3">
         <v>43923</v>
       </c>
       <c r="F170">
@@ -8036,7 +8031,7 @@
       <c r="D171">
         <v>6926</v>
       </c>
-      <c r="E171" s="17">
+      <c r="E171" s="3">
         <v>43923</v>
       </c>
       <c r="F171">
@@ -8074,7 +8069,7 @@
       <c r="D172">
         <v>1814</v>
       </c>
-      <c r="E172" s="17">
+      <c r="E172" s="3">
         <v>43923</v>
       </c>
       <c r="F172">
@@ -8112,7 +8107,7 @@
       <c r="D173">
         <v>2049</v>
       </c>
-      <c r="E173" s="17">
+      <c r="E173" s="3">
         <v>43923</v>
       </c>
       <c r="F173">
@@ -8150,7 +8145,7 @@
       <c r="D174">
         <v>249</v>
       </c>
-      <c r="E174" s="17">
+      <c r="E174" s="3">
         <v>43923</v>
       </c>
       <c r="F174">
@@ -8188,7 +8183,7 @@
       <c r="D175">
         <v>797</v>
       </c>
-      <c r="E175" s="17">
+      <c r="E175" s="3">
         <v>43923</v>
       </c>
       <c r="F175">
@@ -8226,7 +8221,7 @@
       <c r="D176">
         <v>2395</v>
       </c>
-      <c r="E176" s="17">
+      <c r="E176" s="3">
         <v>43924</v>
       </c>
       <c r="F176">
@@ -8264,7 +8259,7 @@
       <c r="D177">
         <v>15134</v>
       </c>
-      <c r="E177" s="17">
+      <c r="E177" s="3">
         <v>43924</v>
       </c>
       <c r="F177">
@@ -8302,7 +8297,7 @@
       <c r="D178">
         <v>7504</v>
       </c>
-      <c r="E178" s="17">
+      <c r="E178" s="3">
         <v>43924</v>
       </c>
       <c r="F178">
@@ -8340,7 +8335,7 @@
       <c r="D179">
         <v>1938</v>
       </c>
-      <c r="E179" s="17">
+      <c r="E179" s="3">
         <v>43924</v>
       </c>
       <c r="F179">
@@ -8378,7 +8373,7 @@
       <c r="D180">
         <v>2171</v>
       </c>
-      <c r="E180" s="17">
+      <c r="E180" s="3">
         <v>43924</v>
       </c>
       <c r="F180">
@@ -8416,7 +8411,7 @@
       <c r="D181">
         <v>322</v>
       </c>
-      <c r="E181" s="17">
+      <c r="E181" s="3">
         <v>43924</v>
       </c>
       <c r="F181">
@@ -8454,7 +8449,7 @@
       <c r="D182">
         <v>844</v>
       </c>
-      <c r="E182" s="17">
+      <c r="E182" s="3">
         <v>43924</v>
       </c>
       <c r="F182">
@@ -8492,7 +8487,7 @@
       <c r="D183">
         <v>343</v>
       </c>
-      <c r="E183" s="17">
+      <c r="E183" s="3">
         <v>43925</v>
       </c>
       <c r="F183">
@@ -8530,7 +8525,7 @@
       <c r="D184">
         <v>2401</v>
       </c>
-      <c r="E184" s="17">
+      <c r="E184" s="3">
         <v>43925</v>
       </c>
       <c r="F184">
@@ -8568,7 +8563,7 @@
       <c r="D185">
         <v>860</v>
       </c>
-      <c r="E185" s="17">
+      <c r="E185" s="3">
         <v>43925</v>
       </c>
       <c r="F185">
@@ -8606,7 +8601,7 @@
       <c r="D186">
         <v>2569</v>
       </c>
-      <c r="E186" s="17">
+      <c r="E186" s="3">
         <v>43925</v>
       </c>
       <c r="F186">
@@ -8644,7 +8639,7 @@
       <c r="D187">
         <v>1624</v>
       </c>
-      <c r="E187" s="17">
+      <c r="E187" s="3">
         <v>43925</v>
       </c>
       <c r="F187">
@@ -8682,7 +8677,7 @@
       <c r="D188">
         <v>16508</v>
       </c>
-      <c r="E188" s="17">
+      <c r="E188" s="3">
         <v>43925</v>
       </c>
       <c r="F188">
@@ -8720,7 +8715,7 @@
       <c r="D189">
         <v>8625</v>
       </c>
-      <c r="E189" s="17">
+      <c r="E189" s="3">
         <v>43925</v>
       </c>
       <c r="F189">
@@ -8758,7 +8753,7 @@
       <c r="D190">
         <v>385</v>
       </c>
-      <c r="E190" s="17">
+      <c r="E190" s="3">
         <v>43926</v>
       </c>
       <c r="F190">
@@ -8796,7 +8791,7 @@
       <c r="D191">
         <v>2513</v>
       </c>
-      <c r="E191" s="17">
+      <c r="E191" s="3">
         <v>43926</v>
       </c>
       <c r="F191">
@@ -8834,7 +8829,7 @@
       <c r="D192">
         <v>975</v>
       </c>
-      <c r="E192" s="17">
+      <c r="E192" s="3">
         <v>43926</v>
       </c>
       <c r="F192">
@@ -8872,7 +8867,7 @@
       <c r="D193">
         <v>2744</v>
       </c>
-      <c r="E193" s="17">
+      <c r="E193" s="3">
         <v>43926</v>
       </c>
       <c r="F193">
@@ -8910,7 +8905,7 @@
       <c r="D194">
         <v>1769</v>
       </c>
-      <c r="E194" s="17">
+      <c r="E194" s="3">
         <v>43926</v>
       </c>
       <c r="F194">
@@ -8948,7 +8943,7 @@
       <c r="D195">
         <v>17653</v>
       </c>
-      <c r="E195" s="17">
+      <c r="E195" s="3">
         <v>43926</v>
       </c>
       <c r="F195">
@@ -8986,7 +8981,7 @@
       <c r="D196">
         <v>8846</v>
       </c>
-      <c r="E196" s="17">
+      <c r="E196" s="3">
         <v>43926</v>
       </c>
       <c r="F196">
@@ -9024,7 +9019,7 @@
       <c r="D197">
         <v>400</v>
       </c>
-      <c r="E197" s="17">
+      <c r="E197" s="3">
         <v>43927</v>
       </c>
       <c r="F197">
@@ -9062,7 +9057,7 @@
       <c r="D198">
         <v>2777</v>
       </c>
-      <c r="E198" s="17">
+      <c r="E198" s="3">
         <v>43927</v>
       </c>
       <c r="F198">
@@ -9100,7 +9095,7 @@
       <c r="D199">
         <v>998</v>
       </c>
-      <c r="E199" s="17">
+      <c r="E199" s="3">
         <v>43927</v>
       </c>
       <c r="F199">
@@ -9138,7 +9133,7 @@
       <c r="D200">
         <v>2871</v>
       </c>
-      <c r="E200" s="17">
+      <c r="E200" s="3">
         <v>43927</v>
       </c>
       <c r="F200">
@@ -9176,7 +9171,7 @@
       <c r="D201">
         <v>1974</v>
       </c>
-      <c r="E201" s="17">
+      <c r="E201" s="3">
         <v>43927</v>
       </c>
       <c r="F201">
@@ -9214,7 +9209,7 @@
       <c r="D202">
         <v>17724</v>
       </c>
-      <c r="E202" s="17">
+      <c r="E202" s="3">
         <v>43927</v>
       </c>
       <c r="F202">
@@ -9252,7 +9247,7 @@
       <c r="D203">
         <v>9131</v>
       </c>
-      <c r="E203" s="17">
+      <c r="E203" s="3">
         <v>43927</v>
       </c>
       <c r="F203">
@@ -9290,7 +9285,7 @@
       <c r="D204">
         <v>484</v>
       </c>
-      <c r="E204" s="17">
+      <c r="E204" s="3">
         <v>43928</v>
       </c>
       <c r="F204">
@@ -9328,7 +9323,7 @@
       <c r="D205">
         <v>2998</v>
       </c>
-      <c r="E205" s="17">
+      <c r="E205" s="3">
         <v>43928</v>
       </c>
       <c r="F205">
@@ -9366,7 +9361,7 @@
       <c r="D206">
         <v>1015</v>
       </c>
-      <c r="E206" s="17">
+      <c r="E206" s="3">
         <v>43928</v>
       </c>
       <c r="F206">
@@ -9404,7 +9399,7 @@
       <c r="D207">
         <v>2921</v>
       </c>
-      <c r="E207" s="17">
+      <c r="E207" s="3">
         <v>43928</v>
       </c>
       <c r="F207">
@@ -9442,7 +9437,7 @@
       <c r="D208">
         <v>2103</v>
       </c>
-      <c r="E208" s="17">
+      <c r="E208" s="3">
         <v>43928</v>
       </c>
       <c r="F208">
@@ -9480,7 +9475,7 @@
       <c r="D209">
         <v>20073</v>
       </c>
-      <c r="E209" s="17">
+      <c r="E209" s="3">
         <v>43928</v>
       </c>
       <c r="F209">
@@ -9518,7 +9513,7 @@
       <c r="D210">
         <v>9589</v>
       </c>
-      <c r="E210" s="17">
+      <c r="E210" s="3">
         <v>43928</v>
       </c>
       <c r="F210">
@@ -9556,7 +9551,7 @@
       <c r="D211">
         <v>534</v>
       </c>
-      <c r="E211" s="17">
+      <c r="E211" s="3">
         <v>43929</v>
       </c>
       <c r="F211">
@@ -9594,7 +9589,7 @@
       <c r="D212">
         <v>3091</v>
       </c>
-      <c r="E212" s="17">
+      <c r="E212" s="3">
         <v>43929</v>
       </c>
       <c r="F212">
@@ -9632,7 +9627,7 @@
       <c r="D213">
         <v>1127</v>
       </c>
-      <c r="E213" s="17">
+      <c r="E213" s="3">
         <v>43929</v>
       </c>
       <c r="F213">
@@ -9670,7 +9665,7 @@
       <c r="D214">
         <v>3096</v>
       </c>
-      <c r="E214" s="17">
+      <c r="E214" s="3">
         <v>43929</v>
       </c>
       <c r="F214">
@@ -9708,7 +9703,7 @@
       <c r="D215">
         <v>2262</v>
       </c>
-      <c r="E215" s="17">
+      <c r="E215" s="3">
         <v>43929</v>
       </c>
       <c r="F215">
@@ -9746,7 +9741,7 @@
       <c r="D216">
         <v>21826</v>
       </c>
-      <c r="E216" s="17">
+      <c r="E216" s="3">
         <v>43929</v>
       </c>
       <c r="F216">
@@ -9784,7 +9779,7 @@
       <c r="D217">
         <v>10223</v>
       </c>
-      <c r="E217" s="17">
+      <c r="E217" s="3">
         <v>43929</v>
       </c>
       <c r="F217">
@@ -9822,7 +9817,7 @@
       <c r="D218">
         <v>581</v>
       </c>
-      <c r="E218" s="17">
+      <c r="E218" s="3">
         <v>43930</v>
       </c>
       <c r="F218">
@@ -9860,7 +9855,7 @@
       <c r="D219">
         <v>3216</v>
       </c>
-      <c r="E219" s="17">
+      <c r="E219" s="3">
         <v>43930</v>
       </c>
       <c r="F219">
@@ -9898,7 +9893,7 @@
       <c r="D220">
         <v>1143</v>
       </c>
-      <c r="E220" s="17">
+      <c r="E220" s="3">
         <v>43930</v>
       </c>
       <c r="F220">
@@ -9936,7 +9931,7 @@
       <c r="D221">
         <v>3233</v>
       </c>
-      <c r="E221" s="17">
+      <c r="E221" s="3">
         <v>43930</v>
       </c>
       <c r="F221">
@@ -9974,7 +9969,7 @@
       <c r="D222">
         <v>2662</v>
       </c>
-      <c r="E222" s="17">
+      <c r="E222" s="3">
         <v>43930</v>
       </c>
       <c r="F222">
@@ -10012,7 +10007,7 @@
       <c r="D223">
         <v>23080</v>
       </c>
-      <c r="E223" s="17">
+      <c r="E223" s="3">
         <v>43930</v>
       </c>
       <c r="F223">
@@ -10050,7 +10045,7 @@
       <c r="D224">
         <v>10981</v>
       </c>
-      <c r="E224" s="17">
+      <c r="E224" s="3">
         <v>43930</v>
       </c>
       <c r="F224">
@@ -10088,7 +10083,7 @@
       <c r="D225">
         <v>631</v>
       </c>
-      <c r="E225" s="17">
+      <c r="E225" s="3">
         <v>43931</v>
       </c>
       <c r="F225">
@@ -10126,7 +10121,7 @@
       <c r="D226">
         <v>3405</v>
       </c>
-      <c r="E226" s="17">
+      <c r="E226" s="3">
         <v>43931</v>
       </c>
       <c r="F226">
@@ -10164,7 +10159,7 @@
       <c r="D227">
         <v>1266</v>
       </c>
-      <c r="E227" s="17">
+      <c r="E227" s="3">
         <v>43931</v>
       </c>
       <c r="F227">
@@ -10202,7 +10197,7 @@
       <c r="D228">
         <v>3375</v>
       </c>
-      <c r="E228" s="17">
+      <c r="E228" s="3">
         <v>43931</v>
       </c>
       <c r="F228">
@@ -10240,7 +10235,7 @@
       <c r="D229">
         <v>2871</v>
       </c>
-      <c r="E229" s="17">
+      <c r="E229" s="3">
         <v>43931</v>
       </c>
       <c r="F229">
@@ -10278,7 +10273,7 @@
       <c r="D230">
         <v>31535</v>
       </c>
-      <c r="E230" s="17">
+      <c r="E230" s="3">
         <v>43931</v>
       </c>
       <c r="F230">
@@ -10316,7 +10311,7 @@
       <c r="D231">
         <v>11623</v>
       </c>
-      <c r="E231" s="17">
+      <c r="E231" s="3">
         <v>43931</v>
       </c>
       <c r="F231">
@@ -10354,7 +10349,7 @@
       <c r="D232">
         <v>745</v>
       </c>
-      <c r="E232" s="17">
+      <c r="E232" s="3">
         <v>43932</v>
       </c>
       <c r="F232">
@@ -10392,7 +10387,7 @@
       <c r="D233">
         <v>3694</v>
       </c>
-      <c r="E233" s="17">
+      <c r="E233" s="3">
         <v>43932</v>
       </c>
       <c r="F233">
@@ -10430,7 +10425,7 @@
       <c r="D234">
         <v>1334</v>
       </c>
-      <c r="E234" s="17">
+      <c r="E234" s="3">
         <v>43932</v>
       </c>
       <c r="F234">
@@ -10468,7 +10463,7 @@
       <c r="D235">
         <v>3480</v>
       </c>
-      <c r="E235" s="17">
+      <c r="E235" s="3">
         <v>43932</v>
       </c>
       <c r="F235">
@@ -10506,7 +10501,7 @@
       <c r="D236">
         <v>3046</v>
       </c>
-      <c r="E236" s="17">
+      <c r="E236" s="3">
         <v>43932</v>
       </c>
       <c r="F236">
@@ -10544,7 +10539,7 @@
       <c r="D237">
         <v>33328</v>
       </c>
-      <c r="E237" s="17">
+      <c r="E237" s="3">
         <v>43932</v>
       </c>
       <c r="F237">
@@ -10582,7 +10577,7 @@
       <c r="D238">
         <v>12209</v>
       </c>
-      <c r="E238" s="17">
+      <c r="E238" s="3">
         <v>43932</v>
       </c>
       <c r="F238">
@@ -10620,7 +10615,7 @@
       <c r="D239">
         <v>813</v>
       </c>
-      <c r="E239" s="17">
+      <c r="E239" s="3">
         <v>43933</v>
       </c>
       <c r="F239">
@@ -10658,7 +10653,7 @@
       <c r="D240">
         <v>3812</v>
       </c>
-      <c r="E240" s="17">
+      <c r="E240" s="3">
         <v>43933</v>
       </c>
       <c r="F240">
@@ -10696,7 +10691,7 @@
       <c r="D241">
         <v>1408</v>
       </c>
-      <c r="E241" s="17">
+      <c r="E241" s="3">
         <v>43933</v>
       </c>
       <c r="F241">
@@ -10734,7 +10729,7 @@
       <c r="D242">
         <v>3570</v>
       </c>
-      <c r="E242" s="17">
+      <c r="E242" s="3">
         <v>43933</v>
       </c>
       <c r="F242">
@@ -10772,7 +10767,7 @@
       <c r="D243">
         <v>3259</v>
       </c>
-      <c r="E243" s="17">
+      <c r="E243" s="3">
         <v>43933</v>
       </c>
       <c r="F243">
@@ -10810,7 +10805,7 @@
       <c r="D244">
         <v>36199</v>
       </c>
-      <c r="E244" s="17">
+      <c r="E244" s="3">
         <v>43933</v>
       </c>
       <c r="F244">
@@ -10848,7 +10843,7 @@
       <c r="D245">
         <v>12740</v>
       </c>
-      <c r="E245" s="17">
+      <c r="E245" s="3">
         <v>43933</v>
       </c>
       <c r="F245">
@@ -10886,7 +10881,7 @@
       <c r="D246">
         <v>910</v>
       </c>
-      <c r="E246" s="17">
+      <c r="E246" s="3">
         <v>43934</v>
       </c>
       <c r="F246">
@@ -10924,7 +10919,7 @@
       <c r="D247">
         <v>3906</v>
       </c>
-      <c r="E247" s="17">
+      <c r="E247" s="3">
         <v>43934</v>
       </c>
       <c r="F247">
@@ -10962,7 +10957,7 @@
       <c r="D248">
         <v>1476</v>
       </c>
-      <c r="E248" s="17">
+      <c r="E248" s="3">
         <v>43934</v>
       </c>
       <c r="F248">
@@ -11000,7 +10995,7 @@
       <c r="D249">
         <v>3836</v>
       </c>
-      <c r="E249" s="17">
+      <c r="E249" s="3">
         <v>43934</v>
       </c>
       <c r="F249">
@@ -11038,7 +11033,7 @@
       <c r="D250">
         <v>3478</v>
       </c>
-      <c r="E250" s="17">
+      <c r="E250" s="3">
         <v>43934</v>
       </c>
       <c r="F250">
@@ -11076,7 +11071,7 @@
       <c r="D251">
         <v>38199</v>
       </c>
-      <c r="E251" s="17">
+      <c r="E251" s="3">
         <v>43934</v>
       </c>
       <c r="F251">
@@ -11114,7 +11109,7 @@
       <c r="D252">
         <v>13309</v>
       </c>
-      <c r="E252" s="17">
+      <c r="E252" s="3">
         <v>43934</v>
       </c>
       <c r="F252">
@@ -11152,7 +11147,7 @@
       <c r="D253">
         <v>992</v>
       </c>
-      <c r="E253" s="17">
+      <c r="E253" s="3">
         <v>43935</v>
       </c>
       <c r="F253">
@@ -11190,7 +11185,7 @@
       <c r="D254">
         <v>4012</v>
       </c>
-      <c r="E254" s="17">
+      <c r="E254" s="3">
         <v>43935</v>
       </c>
       <c r="F254">
@@ -11228,7 +11223,7 @@
       <c r="D255">
         <v>1563</v>
       </c>
-      <c r="E255" s="17">
+      <c r="E255" s="3">
         <v>43935</v>
       </c>
       <c r="F255">
@@ -11266,7 +11261,7 @@
       <c r="D256">
         <v>3947</v>
       </c>
-      <c r="E256" s="17">
+      <c r="E256" s="3">
         <v>43935</v>
       </c>
       <c r="F256">
@@ -11304,7 +11299,7 @@
       <c r="D257">
         <v>3793</v>
       </c>
-      <c r="E257" s="17">
+      <c r="E257" s="3">
         <v>43935</v>
       </c>
       <c r="F257">
@@ -11342,7 +11337,7 @@
       <c r="D258">
         <v>41781</v>
       </c>
-      <c r="E258" s="17">
+      <c r="E258" s="3">
         <v>43935</v>
       </c>
       <c r="F258">
@@ -11380,7 +11375,7 @@
       <c r="D259">
         <v>13840</v>
       </c>
-      <c r="E259" s="17">
+      <c r="E259" s="3">
         <v>43935</v>
       </c>
       <c r="F259">
@@ -11418,7 +11413,7 @@
       <c r="D260">
         <v>1029</v>
       </c>
-      <c r="E260" s="17">
+      <c r="E260" s="3">
         <v>43936</v>
       </c>
       <c r="F260">
@@ -11456,7 +11451,7 @@
       <c r="D261">
         <v>4100</v>
       </c>
-      <c r="E261" s="17">
+      <c r="E261" s="3">
         <v>43936</v>
       </c>
       <c r="F261">
@@ -11494,7 +11489,7 @@
       <c r="D262">
         <v>1618</v>
       </c>
-      <c r="E262" s="17">
+      <c r="E262" s="3">
         <v>43936</v>
       </c>
       <c r="F262">
@@ -11532,7 +11527,7 @@
       <c r="D263">
         <v>4473</v>
       </c>
-      <c r="E263" s="17">
+      <c r="E263" s="3">
         <v>43936</v>
       </c>
       <c r="F263">
@@ -11570,7 +11565,7 @@
       <c r="D264">
         <v>4151</v>
       </c>
-      <c r="E264" s="17">
+      <c r="E264" s="3">
         <v>43936</v>
       </c>
       <c r="F264">
@@ -11608,7 +11603,7 @@
       <c r="D265">
         <v>43565</v>
       </c>
-      <c r="E265" s="17">
+      <c r="E265" s="3">
         <v>43936</v>
       </c>
       <c r="F265">
@@ -11646,7 +11641,7 @@
       <c r="D266">
         <v>14503</v>
       </c>
-      <c r="E266" s="17">
+      <c r="E266" s="3">
         <v>43936</v>
       </c>
       <c r="F266">
@@ -11684,7 +11679,7 @@
       <c r="D267">
         <v>1081</v>
       </c>
-      <c r="E267" s="17">
+      <c r="E267" s="3">
         <v>43937</v>
       </c>
       <c r="F267">
@@ -11722,7 +11717,7 @@
       <c r="D268">
         <v>4299</v>
       </c>
-      <c r="E268" s="17">
+      <c r="E268" s="3">
         <v>43937</v>
       </c>
       <c r="F268">
@@ -11760,7 +11755,7 @@
       <c r="D269">
         <v>1664</v>
       </c>
-      <c r="E269" s="17">
+      <c r="E269" s="3">
         <v>43937</v>
       </c>
       <c r="F269">
@@ -11798,7 +11793,7 @@
       <c r="D270">
         <v>4824</v>
       </c>
-      <c r="E270" s="17">
+      <c r="E270" s="3">
         <v>43937</v>
       </c>
       <c r="F270">
@@ -11836,7 +11831,7 @@
       <c r="D271">
         <v>4524</v>
       </c>
-      <c r="E271" s="17">
+      <c r="E271" s="3">
         <v>43937</v>
       </c>
       <c r="F271">
@@ -11874,7 +11869,7 @@
       <c r="D272">
         <v>46561</v>
       </c>
-      <c r="E272" s="17">
+      <c r="E272" s="3">
         <v>43937</v>
       </c>
       <c r="F272">
@@ -11912,7 +11907,7 @@
       <c r="D273">
         <v>16026</v>
       </c>
-      <c r="E273" s="17">
+      <c r="E273" s="3">
         <v>43937</v>
       </c>
       <c r="F273">
@@ -11950,7 +11945,7 @@
       <c r="D274">
         <v>1135</v>
       </c>
-      <c r="E274" s="17">
+      <c r="E274" s="3">
         <v>43938</v>
       </c>
       <c r="F274">
@@ -11988,7 +11983,7 @@
       <c r="D275">
         <v>4427</v>
       </c>
-      <c r="E275" s="17">
+      <c r="E275" s="3">
         <v>43938</v>
       </c>
       <c r="F275">
@@ -12026,7 +12021,7 @@
       <c r="D276">
         <v>1826</v>
       </c>
-      <c r="E276" s="17">
+      <c r="E276" s="3">
         <v>43938</v>
       </c>
       <c r="F276">
@@ -12064,7 +12059,7 @@
       <c r="D277">
         <v>5150</v>
       </c>
-      <c r="E277" s="17">
+      <c r="E277" s="3">
         <v>43938</v>
       </c>
       <c r="F277">
@@ -12102,7 +12097,7 @@
       <c r="D278">
         <v>4885</v>
       </c>
-      <c r="E278" s="17">
+      <c r="E278" s="3">
         <v>43938</v>
       </c>
       <c r="F278">
@@ -12140,7 +12135,7 @@
       <c r="D279">
         <v>48381</v>
       </c>
-      <c r="E279" s="17">
+      <c r="E279" s="3">
         <v>43938</v>
       </c>
       <c r="F279">
@@ -12178,7 +12173,7 @@
       <c r="D280">
         <v>18900</v>
       </c>
-      <c r="E280" s="17">
+      <c r="E280" s="3">
         <v>43938</v>
       </c>
       <c r="F280">
@@ -12216,7 +12211,7 @@
       <c r="D281">
         <v>1175</v>
       </c>
-      <c r="E281" s="17">
+      <c r="E281" s="3">
         <v>43939</v>
       </c>
       <c r="F281">
@@ -12254,7 +12249,7 @@
       <c r="D282">
         <v>4812</v>
       </c>
-      <c r="E282" s="17">
+      <c r="E282" s="3">
         <v>43939</v>
       </c>
       <c r="F282">
@@ -12292,7 +12287,7 @@
       <c r="D283">
         <v>2021</v>
       </c>
-      <c r="E283" s="17">
+      <c r="E283" s="3">
         <v>43939</v>
       </c>
       <c r="F283">
@@ -12330,7 +12325,7 @@
       <c r="D284">
         <v>5479</v>
       </c>
-      <c r="E284" s="17">
+      <c r="E284" s="3">
         <v>43939</v>
       </c>
       <c r="F284">
@@ -12368,7 +12363,7 @@
       <c r="D285">
         <v>5311</v>
       </c>
-      <c r="E285" s="17">
+      <c r="E285" s="3">
         <v>43939</v>
       </c>
       <c r="F285">
@@ -12406,7 +12401,7 @@
       <c r="D286">
         <v>52478</v>
       </c>
-      <c r="E286" s="17">
+      <c r="E286" s="3">
         <v>43939</v>
       </c>
       <c r="F286">
@@ -12444,7 +12439,7 @@
       <c r="D287">
         <v>21272</v>
       </c>
-      <c r="E287" s="17">
+      <c r="E287" s="3">
         <v>43939</v>
       </c>
       <c r="F287">
@@ -12482,7 +12477,7 @@
       <c r="D288">
         <v>1229</v>
       </c>
-      <c r="E288" s="17">
+      <c r="E288" s="3">
         <v>43940</v>
       </c>
       <c r="F288">
@@ -12520,7 +12515,7 @@
       <c r="D289">
         <v>5085</v>
       </c>
-      <c r="E289" s="17">
+      <c r="E289" s="3">
         <v>43940</v>
       </c>
       <c r="F289">
@@ -12558,7 +12553,7 @@
       <c r="D290">
         <v>2169</v>
       </c>
-      <c r="E290" s="17">
+      <c r="E290" s="3">
         <v>43940</v>
       </c>
       <c r="F290">
@@ -12596,7 +12591,7 @@
       <c r="D291">
         <v>5857</v>
       </c>
-      <c r="E291" s="17">
+      <c r="E291" s="3">
         <v>43940</v>
       </c>
       <c r="F291">
@@ -12634,7 +12629,7 @@
       <c r="D292">
         <v>6003</v>
       </c>
-      <c r="E292" s="17">
+      <c r="E292" s="3">
         <v>43940</v>
       </c>
       <c r="F292">
@@ -12672,7 +12667,7 @@
       <c r="D293">
         <v>55241</v>
       </c>
-      <c r="E293" s="17">
+      <c r="E293" s="3">
         <v>43940</v>
       </c>
       <c r="F293">
@@ -12710,7 +12705,7 @@
       <c r="D294">
         <v>22938</v>
       </c>
-      <c r="E294" s="17">
+      <c r="E294" s="3">
         <v>43940</v>
       </c>
       <c r="F294">
@@ -12748,7 +12743,7 @@
       <c r="D295">
         <v>1275</v>
       </c>
-      <c r="E295" s="17">
+      <c r="E295" s="3">
         <v>43941</v>
       </c>
       <c r="F295">
@@ -12786,7 +12781,7 @@
       <c r="D296">
         <v>5315</v>
       </c>
-      <c r="E296" s="17">
+      <c r="E296" s="3">
         <v>43941</v>
       </c>
       <c r="F296">
@@ -12824,7 +12819,7 @@
       <c r="D297">
         <v>2430</v>
       </c>
-      <c r="E297" s="17">
+      <c r="E297" s="3">
         <v>43941</v>
       </c>
       <c r="F297">
@@ -12862,7 +12857,7 @@
       <c r="D298">
         <v>5976</v>
       </c>
-      <c r="E298" s="17">
+      <c r="E298" s="3">
         <v>43941</v>
       </c>
       <c r="F298">
@@ -12900,7 +12895,7 @@
       <c r="D299">
         <v>6544</v>
       </c>
-      <c r="E299" s="17">
+      <c r="E299" s="3">
         <v>43941</v>
       </c>
       <c r="F299">
@@ -12938,7 +12933,7 @@
       <c r="D300">
         <v>58304</v>
       </c>
-      <c r="E300" s="17">
+      <c r="E300" s="3">
         <v>43941</v>
       </c>
       <c r="F300">
@@ -12976,7 +12971,7 @@
       <c r="D301">
         <v>24458</v>
       </c>
-      <c r="E301" s="17">
+      <c r="E301" s="3">
         <v>43941</v>
       </c>
       <c r="F301">
@@ -13014,7 +13009,7 @@
       <c r="D302">
         <v>1355</v>
       </c>
-      <c r="E302" s="17">
+      <c r="E302" s="3">
         <v>43942</v>
       </c>
       <c r="F302">
@@ -13052,7 +13047,7 @@
       <c r="D303">
         <v>5636</v>
       </c>
-      <c r="E303" s="17">
+      <c r="E303" s="3">
         <v>43942</v>
       </c>
       <c r="F303">
@@ -13090,7 +13085,7 @@
       <c r="D304">
         <v>2604</v>
       </c>
-      <c r="E304" s="17">
+      <c r="E304" s="3">
         <v>43942</v>
       </c>
       <c r="F304">
@@ -13128,7 +13123,7 @@
       <c r="D305">
         <v>6224</v>
       </c>
-      <c r="E305" s="17">
+      <c r="E305" s="3">
         <v>43942</v>
       </c>
       <c r="F305">
@@ -13166,7 +13161,7 @@
       <c r="D306">
         <v>9360</v>
       </c>
-      <c r="E306" s="17">
+      <c r="E306" s="3">
         <v>43942</v>
       </c>
       <c r="F306">
@@ -13204,7 +13199,7 @@
       <c r="D307">
         <v>60649</v>
       </c>
-      <c r="E307" s="17">
+      <c r="E307" s="3">
         <v>43942</v>
       </c>
       <c r="F307">
@@ -13242,7 +13237,7 @@
       <c r="D308">
         <v>26058</v>
       </c>
-      <c r="E308" s="17">
+      <c r="E308" s="3">
         <v>43942</v>
       </c>
       <c r="F308">
@@ -13280,7 +13275,7 @@
       <c r="D309">
         <v>1416</v>
       </c>
-      <c r="E309" s="17">
+      <c r="E309" s="3">
         <v>43943</v>
       </c>
       <c r="F309">
@@ -13318,7 +13313,7 @@
       <c r="D310">
         <v>6130</v>
       </c>
-      <c r="E310" s="17">
+      <c r="E310" s="3">
         <v>43943</v>
       </c>
       <c r="F310">
@@ -13356,7 +13351,7 @@
       <c r="D311">
         <v>2859</v>
       </c>
-      <c r="E311" s="17">
+      <c r="E311" s="3">
         <v>43943</v>
       </c>
       <c r="F311">
@@ -13394,7 +13389,7 @@
       <c r="D312">
         <v>6931</v>
       </c>
-      <c r="E312" s="17">
+      <c r="E312" s="3">
         <v>43943</v>
       </c>
       <c r="F312">
@@ -13432,7 +13427,7 @@
       <c r="D313">
         <v>10837</v>
       </c>
-      <c r="E313" s="17">
+      <c r="E313" s="3">
         <v>43943</v>
       </c>
       <c r="F313">
@@ -13470,7 +13465,7 @@
       <c r="D314">
         <v>66030</v>
       </c>
-      <c r="E314" s="17">
+      <c r="E314" s="3">
         <v>43943</v>
       </c>
       <c r="F314">
@@ -13508,7 +13503,7 @@
       <c r="D315">
         <v>30346</v>
       </c>
-      <c r="E315" s="17">
+      <c r="E315" s="3">
         <v>43943</v>
       </c>
       <c r="F315">
@@ -13546,7 +13541,7 @@
       <c r="D316">
         <v>1471</v>
       </c>
-      <c r="E316" s="17">
+      <c r="E316" s="3">
         <v>43944</v>
       </c>
       <c r="F316">
@@ -13584,7 +13579,7 @@
       <c r="D317">
         <v>6504</v>
       </c>
-      <c r="E317" s="17">
+      <c r="E317" s="3">
         <v>43944</v>
       </c>
       <c r="F317">
@@ -13622,7 +13617,7 @@
       <c r="D318">
         <v>2998</v>
       </c>
-      <c r="E318" s="17">
+      <c r="E318" s="3">
         <v>43944</v>
       </c>
       <c r="F318">
@@ -13660,7 +13655,7 @@
       <c r="D319">
         <v>7519</v>
       </c>
-      <c r="E319" s="17">
+      <c r="E319" s="3">
         <v>43944</v>
       </c>
       <c r="F319">
@@ -13698,7 +13693,7 @@
       <c r="D320">
         <v>11963</v>
       </c>
-      <c r="E320" s="17">
+      <c r="E320" s="3">
         <v>43944</v>
       </c>
       <c r="F320">
@@ -13736,7 +13731,7 @@
       <c r="D321">
         <v>67882</v>
       </c>
-      <c r="E321" s="17">
+      <c r="E321" s="3">
         <v>43944</v>
       </c>
       <c r="F321">
@@ -13774,7 +13769,7 @@
       <c r="D322">
         <v>33028</v>
       </c>
-      <c r="E322" s="17">
+      <c r="E322" s="3">
         <v>43944</v>
       </c>
       <c r="F322">
@@ -13812,7 +13807,7 @@
       <c r="D323">
         <v>1522</v>
       </c>
-      <c r="E323" s="17">
+      <c r="E323" s="3">
         <v>43945</v>
       </c>
       <c r="F323">
@@ -13850,7 +13845,7 @@
       <c r="D324">
         <v>6742</v>
       </c>
-      <c r="E324" s="17">
+      <c r="E324" s="3">
         <v>43945</v>
       </c>
       <c r="F324">
@@ -13888,7 +13883,7 @@
       <c r="D325">
         <v>3162</v>
       </c>
-      <c r="E325" s="17">
+      <c r="E325" s="3">
         <v>43945</v>
       </c>
       <c r="F325">
@@ -13926,7 +13921,7 @@
       <c r="D326">
         <v>8059</v>
       </c>
-      <c r="E326" s="17">
+      <c r="E326" s="3">
         <v>43945</v>
       </c>
       <c r="F326">
@@ -13964,7 +13959,7 @@
       <c r="D327">
         <v>13109</v>
       </c>
-      <c r="E327" s="17">
+      <c r="E327" s="3">
         <v>43945</v>
       </c>
       <c r="F327">
@@ -14002,7 +13997,7 @@
       <c r="D328">
         <v>69971</v>
       </c>
-      <c r="E328" s="17">
+      <c r="E328" s="3">
         <v>43945</v>
       </c>
       <c r="F328">
@@ -14040,7 +14035,7 @@
       <c r="D329">
         <v>35582</v>
       </c>
-      <c r="E329" s="17">
+      <c r="E329" s="3">
         <v>43945</v>
       </c>
       <c r="F329">
@@ -14078,7 +14073,7 @@
       <c r="D330">
         <v>1588</v>
       </c>
-      <c r="E330" s="17">
+      <c r="E330" s="3">
         <v>43946</v>
       </c>
       <c r="F330">
@@ -14116,7 +14111,7 @@
       <c r="D331">
         <v>7212</v>
       </c>
-      <c r="E331" s="17">
+      <c r="E331" s="3">
         <v>43946</v>
       </c>
       <c r="F331">
@@ -14154,7 +14149,7 @@
       <c r="D332">
         <v>3273</v>
       </c>
-      <c r="E332" s="17">
+      <c r="E332" s="3">
         <v>43946</v>
       </c>
       <c r="F332">
@@ -14192,7 +14187,7 @@
       <c r="D333">
         <v>8455</v>
       </c>
-      <c r="E333" s="17">
+      <c r="E333" s="3">
         <v>43946</v>
       </c>
       <c r="F333">
@@ -14230,7 +14225,7 @@
       <c r="D334">
         <v>13930</v>
       </c>
-      <c r="E334" s="17">
+      <c r="E334" s="3">
         <v>43946</v>
       </c>
       <c r="F334">
@@ -14268,7 +14263,7 @@
       <c r="D335">
         <v>71726</v>
       </c>
-      <c r="E335" s="17">
+      <c r="E335" s="3">
         <v>43946</v>
       </c>
       <c r="F335">
@@ -14306,7 +14301,7 @@
       <c r="D336">
         <v>38181</v>
       </c>
-      <c r="E336" s="17">
+      <c r="E336" s="3">
         <v>43946</v>
       </c>
       <c r="F336">
@@ -14344,7 +14339,7 @@
       <c r="D337">
         <v>1588</v>
       </c>
-      <c r="E337" s="17">
+      <c r="E337" s="3">
         <v>43947</v>
       </c>
       <c r="F337">
@@ -14382,7 +14377,7 @@
       <c r="D338">
         <v>7212</v>
       </c>
-      <c r="E338" s="17">
+      <c r="E338" s="3">
         <v>43947</v>
       </c>
       <c r="F338">
@@ -14420,7 +14415,7 @@
       <c r="D339">
         <v>3273</v>
       </c>
-      <c r="E339" s="17">
+      <c r="E339" s="3">
         <v>43947</v>
       </c>
       <c r="F339">
@@ -14458,7 +14453,7 @@
       <c r="D340">
         <v>8455</v>
       </c>
-      <c r="E340" s="17">
+      <c r="E340" s="3">
         <v>43947</v>
       </c>
       <c r="F340">
@@ -14496,7 +14491,7 @@
       <c r="D341">
         <v>13930</v>
       </c>
-      <c r="E341" s="17">
+      <c r="E341" s="3">
         <v>43947</v>
       </c>
       <c r="F341">
@@ -14534,7 +14529,7 @@
       <c r="D342">
         <v>71726</v>
       </c>
-      <c r="E342" s="17">
+      <c r="E342" s="3">
         <v>43947</v>
       </c>
       <c r="F342">
@@ -14572,7 +14567,7 @@
       <c r="D343">
         <v>38181</v>
       </c>
-      <c r="E343" s="17">
+      <c r="E343" s="3">
         <v>43947</v>
       </c>
       <c r="F343">
@@ -14610,7 +14605,7 @@
       <c r="D344">
         <v>1692</v>
       </c>
-      <c r="E344" s="17">
+      <c r="E344" s="3">
         <v>43948</v>
       </c>
       <c r="F344">
@@ -14648,7 +14643,7 @@
       <c r="D345">
         <v>7582</v>
       </c>
-      <c r="E345" s="17">
+      <c r="E345" s="3">
         <v>43948</v>
       </c>
       <c r="F345">
@@ -14686,7 +14681,7 @@
       <c r="D346">
         <v>3398</v>
       </c>
-      <c r="E346" s="17">
+      <c r="E346" s="3">
         <v>43948</v>
       </c>
       <c r="F346">
@@ -14724,7 +14719,7 @@
       <c r="D347">
         <v>8753</v>
       </c>
-      <c r="E347" s="17">
+      <c r="E347" s="3">
         <v>43948</v>
       </c>
       <c r="F347">
@@ -14762,7 +14757,7 @@
       <c r="D348">
         <v>14889</v>
       </c>
-      <c r="E348" s="17">
+      <c r="E348" s="3">
         <v>43948</v>
       </c>
       <c r="F348">
@@ -14800,7 +14795,7 @@
       <c r="D349">
         <v>73226</v>
       </c>
-      <c r="E349" s="17">
+      <c r="E349" s="3">
         <v>43948</v>
       </c>
       <c r="F349">
@@ -14838,7 +14833,7 @@
       <c r="D350">
         <v>41216</v>
       </c>
-      <c r="E350" s="17">
+      <c r="E350" s="3">
         <v>43948</v>
       </c>
       <c r="F350">
@@ -14876,7 +14871,7 @@
       <c r="D351">
         <v>1713</v>
       </c>
-      <c r="E351" s="17">
+      <c r="E351" s="3">
         <v>43949</v>
       </c>
       <c r="F351">
@@ -14914,7 +14909,7 @@
       <c r="D352">
         <v>7991</v>
       </c>
-      <c r="E352" s="17">
+      <c r="E352" s="3">
         <v>43949</v>
       </c>
       <c r="F352">
@@ -14952,7 +14947,7 @@
       <c r="D353">
         <v>3515</v>
       </c>
-      <c r="E353" s="17">
+      <c r="E353" s="3">
         <v>43949</v>
       </c>
       <c r="F353">
@@ -14990,7 +14985,7 @@
       <c r="D354">
         <v>9247</v>
       </c>
-      <c r="E354" s="17">
+      <c r="E354" s="3">
         <v>43949</v>
       </c>
       <c r="F354">
@@ -15028,7 +15023,7 @@
       <c r="D355">
         <v>15737</v>
       </c>
-      <c r="E355" s="17">
+      <c r="E355" s="3">
         <v>43949</v>
       </c>
       <c r="F355">
@@ -15066,7 +15061,7 @@
       <c r="D356">
         <v>75071</v>
       </c>
-      <c r="E356" s="17">
+      <c r="E356" s="3">
         <v>43949</v>
       </c>
       <c r="F356">
@@ -15104,7 +15099,7 @@
       <c r="D357">
         <v>43949</v>
       </c>
-      <c r="E357" s="17">
+      <c r="E357" s="3">
         <v>43949</v>
       </c>
       <c r="F357">
@@ -15142,7 +15137,7 @@
       <c r="D358">
         <v>1826</v>
       </c>
-      <c r="E358" s="17">
+      <c r="E358" s="3">
         <v>43950</v>
       </c>
       <c r="F358">
@@ -15180,7 +15175,7 @@
       <c r="D359">
         <v>8504</v>
       </c>
-      <c r="E359" s="17">
+      <c r="E359" s="3">
         <v>43950</v>
       </c>
       <c r="F359">
@@ -15218,7 +15213,7 @@
       <c r="D360">
         <v>3647</v>
       </c>
-      <c r="E360" s="17">
+      <c r="E360" s="3">
         <v>43950</v>
       </c>
       <c r="F360">
@@ -15256,7 +15251,7 @@
       <c r="D361">
         <v>9705</v>
       </c>
-      <c r="E361" s="17">
+      <c r="E361" s="3">
         <v>43950</v>
       </c>
       <c r="F361">
@@ -15294,7 +15289,7 @@
       <c r="D362">
         <v>16549</v>
       </c>
-      <c r="E362" s="17">
+      <c r="E362" s="3">
         <v>43950</v>
       </c>
       <c r="F362">
@@ -15332,7 +15327,7 @@
       <c r="D363">
         <v>77619</v>
       </c>
-      <c r="E363" s="17">
+      <c r="E363" s="3">
         <v>43950</v>
       </c>
       <c r="F363">
@@ -15370,7 +15365,7 @@
       <c r="D364">
         <v>48061</v>
       </c>
-      <c r="E364" s="17">
+      <c r="E364" s="3">
         <v>43950</v>
       </c>
       <c r="F364">
@@ -15408,7 +15403,7 @@
       <c r="D365">
         <v>1958</v>
       </c>
-      <c r="E365" s="17">
+      <c r="E365" s="3">
         <v>43951</v>
       </c>
       <c r="F365">
@@ -15446,7 +15441,7 @@
       <c r="D366">
         <v>8820</v>
       </c>
-      <c r="E366" s="17">
+      <c r="E366" s="3">
         <v>43951</v>
       </c>
       <c r="F366">
@@ -15484,7 +15479,7 @@
       <c r="D367">
         <v>3791</v>
       </c>
-      <c r="E367" s="17">
+      <c r="E367" s="3">
         <v>43951</v>
       </c>
       <c r="F367">
@@ -15522,7 +15517,7 @@
       <c r="D368">
         <v>10435</v>
       </c>
-      <c r="E368" s="17">
+      <c r="E368" s="3">
         <v>43951</v>
       </c>
       <c r="F368">
@@ -15560,7 +15555,7 @@
       <c r="D369">
         <v>17452</v>
       </c>
-      <c r="E369" s="17">
+      <c r="E369" s="3">
         <v>43951</v>
       </c>
       <c r="F369">
@@ -15598,7 +15593,7 @@
       <c r="D370">
         <v>79914</v>
       </c>
-      <c r="E370" s="17">
+      <c r="E370" s="3">
         <v>43951</v>
       </c>
       <c r="F370">
@@ -15636,7 +15631,7 @@
       <c r="D371">
         <v>51790</v>
       </c>
-      <c r="E371" s="17">
+      <c r="E371" s="3">
         <v>43951</v>
       </c>
       <c r="F371">
@@ -15674,7 +15669,7 @@
       <c r="D372">
         <v>2038</v>
       </c>
-      <c r="E372" s="17">
+      <c r="E372" s="3">
         <v>43952</v>
       </c>
       <c r="F372">
@@ -15712,7 +15707,7 @@
       <c r="D373">
         <v>9435</v>
       </c>
-      <c r="E373" s="17">
+      <c r="E373" s="3">
         <v>43952</v>
       </c>
       <c r="F373">
@@ -15750,7 +15745,7 @@
       <c r="D374">
         <v>3932</v>
       </c>
-      <c r="E374" s="17">
+      <c r="E374" s="3">
         <v>43952</v>
       </c>
       <c r="F374">
@@ -15788,7 +15783,7 @@
       <c r="D375">
         <v>11194</v>
       </c>
-      <c r="E375" s="17">
+      <c r="E375" s="3">
         <v>43952</v>
       </c>
       <c r="F375">
@@ -15826,7 +15821,7 @@
       <c r="D376">
         <v>18504</v>
       </c>
-      <c r="E376" s="17">
+      <c r="E376" s="3">
         <v>43952</v>
       </c>
       <c r="F376">
@@ -15864,7 +15859,7 @@
       <c r="D377">
         <v>82651</v>
       </c>
-      <c r="E377" s="17">
+      <c r="E377" s="3">
         <v>43952</v>
       </c>
       <c r="F377">
@@ -15902,7 +15897,7 @@
       <c r="D378">
         <v>54377</v>
       </c>
-      <c r="E378" s="17">
+      <c r="E378" s="3">
         <v>43952</v>
       </c>
       <c r="F378">
@@ -15940,7 +15935,7 @@
       <c r="D379">
         <v>2054</v>
       </c>
-      <c r="E379" s="17">
+      <c r="E379" s="3">
         <v>43953</v>
       </c>
       <c r="F379">
@@ -15978,7 +15973,7 @@
       <c r="D380">
         <v>9821</v>
       </c>
-      <c r="E380" s="17">
+      <c r="E380" s="3">
         <v>43953</v>
       </c>
       <c r="F380">
@@ -16016,7 +16011,7 @@
       <c r="D381">
         <v>4146</v>
       </c>
-      <c r="E381" s="17">
+      <c r="E381" s="3">
         <v>43953</v>
       </c>
       <c r="F381">
@@ -16054,7 +16049,7 @@
       <c r="D382">
         <v>11689</v>
       </c>
-      <c r="E382" s="17">
+      <c r="E382" s="3">
         <v>43953</v>
       </c>
       <c r="F382">
@@ -16092,7 +16087,7 @@
       <c r="D383">
         <v>19489</v>
       </c>
-      <c r="E383" s="17">
+      <c r="E383" s="3">
         <v>43953</v>
       </c>
       <c r="F383">
@@ -16130,7 +16125,7 @@
       <c r="D384">
         <v>88899</v>
       </c>
-      <c r="E384" s="17">
+      <c r="E384" s="3">
         <v>43953</v>
       </c>
       <c r="F384">
@@ -16168,7 +16163,7 @@
       <c r="D385">
         <v>57761</v>
       </c>
-      <c r="E385" s="17">
+      <c r="E385" s="3">
         <v>43953</v>
       </c>
       <c r="F385">
@@ -16206,7 +16201,7 @@
       <c r="D386">
         <v>2227</v>
       </c>
-      <c r="E386" s="17">
+      <c r="E386" s="3">
         <v>43955</v>
       </c>
       <c r="F386">
@@ -16244,7 +16239,7 @@
       <c r="D387">
         <v>10326</v>
       </c>
-      <c r="E387" s="17">
+      <c r="E387" s="3">
         <v>43955</v>
       </c>
       <c r="F387">
@@ -16282,7 +16277,7 @@
       <c r="D388">
         <v>4439</v>
       </c>
-      <c r="E388" s="17">
+      <c r="E388" s="3">
         <v>43955</v>
       </c>
       <c r="F388">
@@ -16320,7 +16315,7 @@
       <c r="D389">
         <v>12704</v>
       </c>
-      <c r="E389" s="17">
+      <c r="E389" s="3">
         <v>43955</v>
       </c>
       <c r="F389">
@@ -16358,7 +16353,7 @@
       <c r="D390">
         <v>21909</v>
       </c>
-      <c r="E390" s="17">
+      <c r="E390" s="3">
         <v>43955</v>
       </c>
       <c r="F390">
@@ -16396,7 +16391,7 @@
       <c r="D391">
         <v>96854</v>
       </c>
-      <c r="E391" s="17">
+      <c r="E391" s="3">
         <v>43955</v>
       </c>
       <c r="F391">
@@ -16434,7 +16429,7 @@
       <c r="D392">
         <v>64052</v>
       </c>
-      <c r="E392" s="17">
+      <c r="E392" s="3">
         <v>43955</v>
       </c>
       <c r="F392">
@@ -16472,7 +16467,7 @@
       <c r="D393">
         <v>2281</v>
       </c>
-      <c r="E393" s="17">
+      <c r="E393" s="3">
         <v>43956</v>
       </c>
       <c r="F393">
@@ -16510,7 +16505,7 @@
       <c r="D394">
         <v>10633</v>
       </c>
-      <c r="E394" s="17">
+      <c r="E394" s="3">
         <v>43956</v>
       </c>
       <c r="F394">
@@ -16548,7 +16543,7 @@
       <c r="D395">
         <v>4581</v>
       </c>
-      <c r="E395" s="17">
+      <c r="E395" s="3">
         <v>43956</v>
       </c>
       <c r="F395">
@@ -16586,7 +16581,7 @@
       <c r="D396">
         <v>13697</v>
       </c>
-      <c r="E396" s="17">
+      <c r="E396" s="3">
         <v>43956</v>
       </c>
       <c r="F396">
@@ -16624,7 +16619,7 @@
       <c r="D397">
         <v>22692</v>
       </c>
-      <c r="E397" s="17">
+      <c r="E397" s="3">
         <v>43956</v>
       </c>
       <c r="F397">
@@ -16662,7 +16657,7 @@
       <c r="D398">
         <v>101897</v>
       </c>
-      <c r="E398" s="17">
+      <c r="E398" s="3">
         <v>43956</v>
       </c>
       <c r="F398">
@@ -16700,7 +16695,7 @@
       <c r="D399">
         <v>66623</v>
       </c>
-      <c r="E399" s="17">
+      <c r="E399" s="3">
         <v>43956</v>
       </c>
       <c r="F399">
@@ -16738,7 +16733,7 @@
       <c r="D400">
         <v>2391</v>
       </c>
-      <c r="E400" s="17">
+      <c r="E400" s="3">
         <v>43957</v>
       </c>
       <c r="F400">
@@ -16776,7 +16771,7 @@
       <c r="D401">
         <v>11496</v>
       </c>
-      <c r="E401" s="17">
+      <c r="E401" s="3">
         <v>43957</v>
       </c>
       <c r="F401">
@@ -16814,7 +16809,7 @@
       <c r="D402">
         <v>4748</v>
       </c>
-      <c r="E402" s="17">
+      <c r="E402" s="3">
         <v>43957</v>
       </c>
       <c r="F402">
@@ -16852,7 +16847,7 @@
       <c r="D403">
         <v>14585</v>
       </c>
-      <c r="E403" s="17">
+      <c r="E403" s="3">
         <v>43957</v>
       </c>
       <c r="F403">
@@ -16890,7 +16885,7 @@
       <c r="D404">
         <v>23562</v>
       </c>
-      <c r="E404" s="17">
+      <c r="E404" s="3">
         <v>43957</v>
       </c>
       <c r="F404">
@@ -16928,7 +16923,7 @@
       <c r="D405">
         <v>106927</v>
       </c>
-      <c r="E405" s="17">
+      <c r="E405" s="3">
         <v>43957</v>
       </c>
       <c r="F405">
@@ -16966,7 +16961,7 @@
       <c r="D406">
         <v>68873</v>
       </c>
-      <c r="E406" s="17">
+      <c r="E406" s="3">
         <v>43957</v>
       </c>
       <c r="F406">
@@ -17004,7 +16999,7 @@
       <c r="D407">
         <v>2471</v>
       </c>
-      <c r="E407" s="17">
+      <c r="E407" s="3">
         <v>43958</v>
       </c>
       <c r="F407">
@@ -17042,7 +17037,7 @@
       <c r="D408">
         <v>12289</v>
       </c>
-      <c r="E408" s="17">
+      <c r="E408" s="3">
         <v>43958</v>
       </c>
       <c r="F408">
@@ -17080,7 +17075,7 @@
       <c r="D409">
         <v>4876</v>
       </c>
-      <c r="E409" s="17">
+      <c r="E409" s="3">
         <v>43958</v>
       </c>
       <c r="F409">
@@ -17118,7 +17113,7 @@
       <c r="D410">
         <v>15607</v>
       </c>
-      <c r="E410" s="17">
+      <c r="E410" s="3">
         <v>43958</v>
       </c>
       <c r="F410">
@@ -17156,7 +17151,7 @@
       <c r="D411">
         <v>24984</v>
       </c>
-      <c r="E411" s="17">
+      <c r="E411" s="3">
         <v>43958</v>
       </c>
       <c r="F411">
@@ -17194,7 +17189,7 @@
       <c r="D412">
         <v>112007</v>
       </c>
-      <c r="E412" s="17">
+      <c r="E412" s="3">
         <v>43958</v>
       </c>
       <c r="F412">
@@ -17232,7 +17227,7 @@
       <c r="D413">
         <v>72544</v>
       </c>
-      <c r="E413" s="17">
+      <c r="E413" s="3">
         <v>43958</v>
       </c>
       <c r="F413">
@@ -17270,7 +17265,7 @@
       <c r="D414">
         <v>2518</v>
       </c>
-      <c r="E414" s="17">
+      <c r="E414" s="3">
         <v>43959</v>
       </c>
       <c r="F414">
@@ -17308,7 +17303,7 @@
       <c r="D415">
         <v>13241</v>
       </c>
-      <c r="E415" s="17">
+      <c r="E415" s="3">
         <v>43959</v>
       </c>
       <c r="F415">
@@ -17346,7 +17341,7 @@
       <c r="D416">
         <v>5007</v>
       </c>
-      <c r="E416" s="17">
+      <c r="E416" s="3">
         <v>43959</v>
       </c>
       <c r="F416">
@@ -17384,7 +17379,7 @@
       <c r="D417">
         <v>16666</v>
       </c>
-      <c r="E417" s="17">
+      <c r="E417" s="3">
         <v>43959</v>
       </c>
       <c r="F417">
@@ -17422,7 +17417,7 @@
       <c r="D418">
         <v>26531</v>
       </c>
-      <c r="E418" s="17">
+      <c r="E418" s="3">
         <v>43959</v>
       </c>
       <c r="F418">
@@ -17460,7 +17455,7 @@
       <c r="D419">
         <v>117206</v>
       </c>
-      <c r="E419" s="17">
+      <c r="E419" s="3">
         <v>43959</v>
       </c>
       <c r="F419">
@@ -17498,7 +17493,7 @@
       <c r="D420">
         <v>76078</v>
       </c>
-      <c r="E420" s="17">
+      <c r="E420" s="3">
         <v>43959</v>
       </c>
       <c r="F420">
@@ -17536,7 +17531,7 @@
       <c r="D421">
         <v>2668</v>
       </c>
-      <c r="E421" s="17">
+      <c r="E421" s="3">
         <v>43960</v>
       </c>
       <c r="F421">
@@ -17574,7 +17569,7 @@
       <c r="D422">
         <v>13771</v>
       </c>
-      <c r="E422" s="17">
+      <c r="E422" s="3">
         <v>43960</v>
       </c>
       <c r="F422">
@@ -17612,7 +17607,7 @@
       <c r="D423">
         <v>5135</v>
       </c>
-      <c r="E423" s="17">
+      <c r="E423" s="3">
         <v>43960</v>
       </c>
       <c r="F423">
@@ -17650,7 +17645,7 @@
       <c r="D424">
         <v>17657</v>
       </c>
-      <c r="E424" s="17">
+      <c r="E424" s="3">
         <v>43960</v>
       </c>
       <c r="F424">
@@ -17688,7 +17683,7 @@
       <c r="D425">
         <v>27990</v>
       </c>
-      <c r="E425" s="17">
+      <c r="E425" s="3">
         <v>43960</v>
       </c>
       <c r="F425">
@@ -17726,7 +17721,7 @@
       <c r="D426">
         <v>121194</v>
       </c>
-      <c r="E426" s="17">
+      <c r="E426" s="3">
         <v>43960</v>
       </c>
       <c r="F426">
@@ -17764,7 +17759,7 @@
       <c r="D427">
         <v>81610</v>
       </c>
-      <c r="E427" s="17">
+      <c r="E427" s="3">
         <v>43960</v>
       </c>
       <c r="F427">
@@ -17802,7 +17797,7 @@
       <c r="D428">
         <v>2780</v>
       </c>
-      <c r="E428" s="17">
+      <c r="E428" s="3">
         <v>43961</v>
       </c>
       <c r="F428">
@@ -17840,7 +17835,7 @@
       <c r="D429">
         <v>14374</v>
       </c>
-      <c r="E429" s="17">
+      <c r="E429" s="3">
         <v>43961</v>
       </c>
       <c r="F429">
@@ -17878,7 +17873,7 @@
       <c r="D430">
         <v>5310</v>
       </c>
-      <c r="E430" s="17">
+      <c r="E430" s="3">
         <v>43961</v>
       </c>
       <c r="F430">
@@ -17916,7 +17911,7 @@
       <c r="D431">
         <v>18755</v>
       </c>
-      <c r="E431" s="17">
+      <c r="E431" s="3">
         <v>43961</v>
       </c>
       <c r="F431">
@@ -17954,7 +17949,7 @@
       <c r="D432">
         <v>29202</v>
       </c>
-      <c r="E432" s="17">
+      <c r="E432" s="3">
         <v>43961</v>
       </c>
       <c r="F432">
@@ -17992,7 +17987,7 @@
       <c r="D433">
         <v>125988</v>
       </c>
-      <c r="E433" s="17">
+      <c r="E433" s="3">
         <v>43961</v>
       </c>
       <c r="F433">
@@ -18030,7 +18025,7 @@
       <c r="D434">
         <v>87108</v>
       </c>
-      <c r="E434" s="17">
+      <c r="E434" s="3">
         <v>43961</v>
       </c>
       <c r="F434">
@@ -18068,7 +18063,7 @@
       <c r="D435">
         <v>2854</v>
       </c>
-      <c r="E435" s="17">
+      <c r="E435" s="3">
         <v>43962</v>
       </c>
       <c r="F435">
@@ -18106,7 +18101,7 @@
       <c r="D436">
         <v>14687</v>
       </c>
-      <c r="E436" s="17">
+      <c r="E436" s="3">
         <v>43962</v>
       </c>
       <c r="F436">
@@ -18144,7 +18139,7 @@
       <c r="D437">
         <v>5480</v>
       </c>
-      <c r="E437" s="17">
+      <c r="E437" s="3">
         <v>43962</v>
       </c>
       <c r="F437">
@@ -18182,7 +18177,7 @@
       <c r="D438">
         <v>19532</v>
       </c>
-      <c r="E438" s="17">
+      <c r="E438" s="3">
         <v>43962</v>
       </c>
       <c r="F438">
@@ -18220,7 +18215,7 @@
       <c r="D439">
         <v>30472</v>
       </c>
-      <c r="E439" s="17">
+      <c r="E439" s="3">
         <v>43962</v>
       </c>
       <c r="F439">
@@ -18258,7 +18253,7 @@
       <c r="D440">
         <v>130546</v>
       </c>
-      <c r="E440" s="17">
+      <c r="E440" s="3">
         <v>43962</v>
       </c>
       <c r="F440">
@@ -18296,7 +18291,7 @@
       <c r="D441">
         <v>91323</v>
       </c>
-      <c r="E441" s="17">
+      <c r="E441" s="3">
         <v>43962</v>
       </c>
       <c r="F441">
@@ -18334,7 +18329,7 @@
       <c r="D442">
         <v>2935</v>
       </c>
-      <c r="E442" s="17">
+      <c r="E442" s="3">
         <v>43963</v>
       </c>
       <c r="F442">
@@ -18372,7 +18367,7 @@
       <c r="D443">
         <v>15323</v>
       </c>
-      <c r="E443" s="17">
+      <c r="E443" s="3">
         <v>43963</v>
       </c>
       <c r="F443">
@@ -18410,7 +18405,7 @@
       <c r="D444">
         <v>5619</v>
       </c>
-      <c r="E444" s="17">
+      <c r="E444" s="3">
         <v>43963</v>
       </c>
       <c r="F444">
@@ -18448,7 +18443,7 @@
       <c r="D445">
         <v>20201</v>
       </c>
-      <c r="E445" s="17">
+      <c r="E445" s="3">
         <v>43963</v>
       </c>
       <c r="F445">
@@ -18486,7 +18481,7 @@
       <c r="D446">
         <v>31606</v>
       </c>
-      <c r="E446" s="17">
+      <c r="E446" s="3">
         <v>43963</v>
       </c>
       <c r="F446">
@@ -18524,7 +18519,7 @@
       <c r="D447">
         <v>135114</v>
       </c>
-      <c r="E447" s="17">
+      <c r="E447" s="3">
         <v>43963</v>
       </c>
       <c r="F447">
@@ -18562,7 +18557,7 @@
       <c r="D448">
         <v>95053</v>
       </c>
-      <c r="E448" s="17">
+      <c r="E448" s="3">
         <v>43963</v>
       </c>
       <c r="F448">
@@ -18600,7 +18595,7 @@
       <c r="D449">
         <v>3037</v>
       </c>
-      <c r="E449" s="17">
+      <c r="E449" s="3">
         <v>43964</v>
       </c>
       <c r="F449">
@@ -18638,7 +18633,7 @@
       <c r="D450">
         <v>15751</v>
       </c>
-      <c r="E450" s="17">
+      <c r="E450" s="3">
         <v>43964</v>
       </c>
       <c r="F450">
@@ -18676,7 +18671,7 @@
       <c r="D451">
         <v>5748</v>
       </c>
-      <c r="E451" s="17">
+      <c r="E451" s="3">
         <v>43964</v>
       </c>
       <c r="F451">
@@ -18714,7 +18709,7 @@
       <c r="D452">
         <v>21257</v>
       </c>
-      <c r="E452" s="17">
+      <c r="E452" s="3">
         <v>43964</v>
       </c>
       <c r="F452">
@@ -18752,7 +18747,7 @@
       <c r="D453">
         <v>32577</v>
       </c>
-      <c r="E453" s="17">
+      <c r="E453" s="3">
         <v>43964</v>
       </c>
       <c r="F453">
@@ -18790,7 +18785,7 @@
       <c r="D454">
         <v>140212</v>
       </c>
-      <c r="E454" s="17">
+      <c r="E454" s="3">
         <v>43964</v>
       </c>
       <c r="F454">
@@ -18828,7 +18823,7 @@
       <c r="D455">
         <v>99117</v>
       </c>
-      <c r="E455" s="17">
+      <c r="E455" s="3">
         <v>43964</v>
       </c>
       <c r="F455">
@@ -18866,7 +18861,7 @@
       <c r="D456">
         <v>3245</v>
       </c>
-      <c r="E456" s="17">
+      <c r="E456" s="3">
         <v>43965</v>
       </c>
       <c r="F456">
@@ -18904,7 +18899,7 @@
       <c r="D457">
         <v>16062</v>
       </c>
-      <c r="E457" s="17">
+      <c r="E457" s="3">
         <v>43965</v>
       </c>
       <c r="F457">
@@ -18942,7 +18937,7 @@
       <c r="D458">
         <v>5884</v>
       </c>
-      <c r="E458" s="17">
+      <c r="E458" s="3">
         <v>43965</v>
       </c>
       <c r="F458">
@@ -18980,7 +18975,7 @@
       <c r="D459">
         <v>22287</v>
       </c>
-      <c r="E459" s="17">
+      <c r="E459" s="3">
         <v>43965</v>
       </c>
       <c r="F459">
@@ -19018,7 +19013,7 @@
       <c r="D460">
         <v>34352</v>
       </c>
-      <c r="E460" s="17">
+      <c r="E460" s="3">
         <v>43965</v>
       </c>
       <c r="F460">
@@ -19056,7 +19051,7 @@
       <c r="D461">
         <v>145577</v>
       </c>
-      <c r="E461" s="17">
+      <c r="E461" s="3">
         <v>43965</v>
       </c>
       <c r="F461">
@@ -19094,7 +19089,7 @@
       <c r="D462">
         <v>103343</v>
       </c>
-      <c r="E462" s="17">
+      <c r="E462" s="3">
         <v>43965</v>
       </c>
       <c r="F462">
@@ -19132,7 +19127,7 @@
       <c r="D463">
         <v>3411</v>
       </c>
-      <c r="E463" s="17">
+      <c r="E463" s="3">
         <v>43966</v>
       </c>
       <c r="F463">
@@ -19170,7 +19165,7 @@
       <c r="D464">
         <v>16601</v>
       </c>
-      <c r="E464" s="17">
+      <c r="E464" s="3">
         <v>43966</v>
       </c>
       <c r="F464">
@@ -19208,7 +19203,7 @@
       <c r="D465">
         <v>6027</v>
       </c>
-      <c r="E465" s="17">
+      <c r="E465" s="3">
         <v>43966</v>
       </c>
       <c r="F465">
@@ -19246,7 +19241,7 @@
       <c r="D466">
         <v>23409</v>
       </c>
-      <c r="E466" s="17">
+      <c r="E466" s="3">
         <v>43966</v>
       </c>
       <c r="F466">
@@ -19284,7 +19279,7 @@
       <c r="D467">
         <v>35905</v>
       </c>
-      <c r="E467" s="17">
+      <c r="E467" s="3">
         <v>43966</v>
       </c>
       <c r="F467">
@@ -19322,7 +19317,7 @@
       <c r="D468">
         <v>151247</v>
       </c>
-      <c r="E468" s="17">
+      <c r="E468" s="3">
         <v>43966</v>
       </c>
       <c r="F468">
@@ -19360,7 +19355,7 @@
       <c r="D469">
         <v>107830</v>
       </c>
-      <c r="E469" s="17">
+      <c r="E469" s="3">
         <v>43966</v>
       </c>
       <c r="F469">
@@ -19398,7 +19393,7 @@
       <c r="D470">
         <v>3572</v>
       </c>
-      <c r="E470" s="17">
+      <c r="E470" s="3">
         <v>43967</v>
       </c>
       <c r="F470">
@@ -19436,7 +19431,7 @@
       <c r="D471">
         <v>17078</v>
       </c>
-      <c r="E471" s="17">
+      <c r="E471" s="3">
         <v>43967</v>
       </c>
       <c r="F471">
@@ -19474,7 +19469,7 @@
       <c r="D472">
         <v>6173</v>
       </c>
-      <c r="E472" s="17">
+      <c r="E472" s="3">
         <v>43967</v>
       </c>
       <c r="F472">
@@ -19512,7 +19507,7 @@
       <c r="D473">
         <v>24367</v>
       </c>
-      <c r="E473" s="17">
+      <c r="E473" s="3">
         <v>43967</v>
       </c>
       <c r="F473">
@@ -19550,7 +19545,7 @@
       <c r="D474">
         <v>37452</v>
       </c>
-      <c r="E474" s="17">
+      <c r="E474" s="3">
         <v>43967</v>
       </c>
       <c r="F474">
@@ -19588,7 +19583,7 @@
       <c r="D475">
         <v>157226</v>
       </c>
-      <c r="E475" s="17">
+      <c r="E475" s="3">
         <v>43967</v>
       </c>
       <c r="F475">
@@ -19626,7 +19621,7 @@
       <c r="D476">
         <v>113396</v>
       </c>
-      <c r="E476" s="17">
+      <c r="E476" s="3">
         <v>43967</v>
       </c>
       <c r="F476">
@@ -19664,7 +19659,7 @@
       <c r="D477">
         <v>3758</v>
       </c>
-      <c r="E477" s="17">
+      <c r="E477" s="3">
         <v>43968</v>
       </c>
       <c r="F477">
@@ -19702,7 +19697,7 @@
       <c r="D478">
         <v>17663</v>
       </c>
-      <c r="E478" s="17">
+      <c r="E478" s="3">
         <v>43968</v>
       </c>
       <c r="F478">
@@ -19740,7 +19735,7 @@
       <c r="D479">
         <v>6356</v>
       </c>
-      <c r="E479" s="17">
+      <c r="E479" s="3">
         <v>43968</v>
       </c>
       <c r="F479">
@@ -19778,7 +19773,7 @@
       <c r="D480">
         <v>25385</v>
       </c>
-      <c r="E480" s="17">
+      <c r="E480" s="3">
         <v>43968</v>
       </c>
       <c r="F480">
@@ -19816,7 +19811,7 @@
       <c r="D481">
         <v>38992</v>
       </c>
-      <c r="E481" s="17">
+      <c r="E481" s="3">
         <v>43968</v>
       </c>
       <c r="F481">
@@ -19854,7 +19849,7 @@
       <c r="D482">
         <v>163466</v>
       </c>
-      <c r="E482" s="17">
+      <c r="E482" s="3">
         <v>43968</v>
       </c>
       <c r="F482">
@@ -19892,7 +19887,7 @@
       <c r="D483">
         <v>117860</v>
       </c>
-      <c r="E483" s="17">
+      <c r="E483" s="3">
         <v>43968</v>
       </c>
       <c r="F483">
@@ -19930,7 +19925,7 @@
       <c r="D484">
         <v>3947</v>
       </c>
-      <c r="E484" s="17">
+      <c r="E484" s="3">
         <v>43969</v>
       </c>
       <c r="F484">
@@ -19968,7 +19963,7 @@
       <c r="D485">
         <v>18021</v>
       </c>
-      <c r="E485" s="17">
+      <c r="E485" s="3">
         <v>43969</v>
       </c>
       <c r="F485">
@@ -20006,7 +20001,7 @@
       <c r="D486">
         <v>6517</v>
       </c>
-      <c r="E486" s="17">
+      <c r="E486" s="3">
         <v>43969</v>
       </c>
       <c r="F486">
@@ -20044,7 +20039,7 @@
       <c r="D487">
         <v>26606</v>
       </c>
-      <c r="E487" s="17">
+      <c r="E487" s="3">
         <v>43969</v>
       </c>
       <c r="F487">
@@ -20082,7 +20077,7 @@
       <c r="D488">
         <v>40410</v>
       </c>
-      <c r="E488" s="17">
+      <c r="E488" s="3">
         <v>43969</v>
       </c>
       <c r="F488">
@@ -20120,7 +20115,7 @@
       <c r="D489">
         <v>168940</v>
       </c>
-      <c r="E489" s="17">
+      <c r="E489" s="3">
         <v>43969</v>
       </c>
       <c r="F489">
@@ -20158,7 +20153,7 @@
       <c r="D490">
         <v>122894</v>
       </c>
-      <c r="E490" s="17">
+      <c r="E490" s="3">
         <v>43969</v>
       </c>
       <c r="F490">
@@ -20196,7 +20191,7 @@
       <c r="D491">
         <v>4090</v>
       </c>
-      <c r="E491" s="17">
+      <c r="E491" s="3">
         <v>43970</v>
       </c>
       <c r="F491">
@@ -20234,7 +20229,7 @@
       <c r="D492">
         <v>18438</v>
       </c>
-      <c r="E492" s="17">
+      <c r="E492" s="3">
         <v>43970</v>
       </c>
       <c r="F492">
@@ -20272,7 +20267,7 @@
       <c r="D493">
         <v>6636</v>
       </c>
-      <c r="E493" s="17">
+      <c r="E493" s="3">
         <v>43970</v>
       </c>
       <c r="F493">
@@ -20310,7 +20305,7 @@
       <c r="D494">
         <v>27425</v>
       </c>
-      <c r="E494" s="17">
+      <c r="E494" s="3">
         <v>43970</v>
       </c>
       <c r="F494">
@@ -20348,7 +20343,7 @@
       <c r="D495">
         <v>41825</v>
       </c>
-      <c r="E495" s="17">
+      <c r="E495" s="3">
         <v>43970</v>
       </c>
       <c r="F495">
@@ -20386,7 +20381,7 @@
       <c r="D496">
         <v>174305</v>
       </c>
-      <c r="E496" s="17">
+      <c r="E496" s="3">
         <v>43970</v>
       </c>
       <c r="F496">
@@ -20424,7 +20419,7 @@
       <c r="D497">
         <v>127573</v>
       </c>
-      <c r="E497" s="17">
+      <c r="E497" s="3">
         <v>43970</v>
       </c>
       <c r="F497">
@@ -20462,7 +20457,7 @@
       <c r="D498">
         <v>4242</v>
       </c>
-      <c r="E498" s="17">
+      <c r="E498" s="3">
         <v>43971</v>
       </c>
       <c r="F498">
@@ -20500,7 +20495,7 @@
       <c r="D499">
         <v>19003</v>
       </c>
-      <c r="E499" s="17">
+      <c r="E499" s="3">
         <v>43971</v>
       </c>
       <c r="F499">
@@ -20538,7 +20533,7 @@
       <c r="D500">
         <v>6731</v>
       </c>
-      <c r="E500" s="17">
+      <c r="E500" s="3">
         <v>43971</v>
       </c>
       <c r="F500">
@@ -20576,7 +20571,7 @@
       <c r="D501">
         <v>29033</v>
       </c>
-      <c r="E501" s="17">
+      <c r="E501" s="3">
         <v>43971</v>
       </c>
       <c r="F501">
@@ -20614,7 +20609,7 @@
       <c r="D502">
         <v>43329</v>
       </c>
-      <c r="E502" s="17">
+      <c r="E502" s="3">
         <v>43971</v>
       </c>
       <c r="F502">
@@ -20652,7 +20647,7 @@
       <c r="D503">
         <v>180540</v>
       </c>
-      <c r="E503" s="17">
+      <c r="E503" s="3">
         <v>43971</v>
       </c>
       <c r="F503">
@@ -20690,7 +20685,7 @@
       <c r="D504">
         <v>131376</v>
       </c>
-      <c r="E504" s="17">
+      <c r="E504" s="3">
         <v>43971</v>
       </c>
       <c r="F504">
@@ -20728,7 +20723,7 @@
       <c r="D505">
         <v>4470</v>
       </c>
-      <c r="E505" s="17">
+      <c r="E505" s="3">
         <v>43972</v>
       </c>
       <c r="F505">
@@ -20766,7 +20761,7 @@
       <c r="D506">
         <v>19345</v>
       </c>
-      <c r="E506" s="17">
+      <c r="E506" s="3">
         <v>43972</v>
       </c>
       <c r="F506">
@@ -20804,7 +20799,7 @@
       <c r="D507">
         <v>6928</v>
       </c>
-      <c r="E507" s="17">
+      <c r="E507" s="3">
         <v>43972</v>
       </c>
       <c r="F507">
@@ -20842,7 +20837,7 @@
       <c r="D508">
         <v>30364</v>
       </c>
-      <c r="E508" s="17">
+      <c r="E508" s="3">
         <v>43972</v>
       </c>
       <c r="F508">
@@ -20880,7 +20875,7 @@
       <c r="D509">
         <v>44973</v>
       </c>
-      <c r="E509" s="17">
+      <c r="E509" s="3">
         <v>43972</v>
       </c>
       <c r="F509">
@@ -20918,7 +20913,7 @@
       <c r="D510">
         <v>185979</v>
       </c>
-      <c r="E510" s="17">
+      <c r="E510" s="3">
         <v>43972</v>
       </c>
       <c r="F510">
@@ -20956,7 +20951,7 @@
       <c r="D511">
         <v>137540</v>
       </c>
-      <c r="E511" s="17">
+      <c r="E511" s="3">
         <v>43972</v>
       </c>
       <c r="F511">
@@ -20994,7 +20989,7 @@
       <c r="D512">
         <v>4659</v>
       </c>
-      <c r="E512" s="17">
+      <c r="E512" s="3">
         <v>43973</v>
       </c>
       <c r="F512">
@@ -21032,7 +21027,7 @@
       <c r="D513">
         <v>19888</v>
       </c>
-      <c r="E513" s="17">
+      <c r="E513" s="3">
         <v>43973</v>
       </c>
       <c r="F513">
@@ -21070,7 +21065,7 @@
       <c r="D514">
         <v>7099</v>
       </c>
-      <c r="E514" s="17">
+      <c r="E514" s="3">
         <v>43973</v>
       </c>
       <c r="F514">
@@ -21108,7 +21103,7 @@
       <c r="D515">
         <v>32126</v>
       </c>
-      <c r="E515" s="17">
+      <c r="E515" s="3">
         <v>43973</v>
       </c>
       <c r="F515">
@@ -21146,7 +21141,7 @@
       <c r="D516">
         <v>46762</v>
       </c>
-      <c r="E516" s="17">
+      <c r="E516" s="3">
         <v>43973</v>
       </c>
       <c r="F516">
@@ -21184,7 +21179,7 @@
       <c r="D517">
         <v>191910</v>
       </c>
-      <c r="E517" s="17">
+      <c r="E517" s="3">
         <v>43973</v>
       </c>
       <c r="F517">
@@ -21222,7 +21217,7 @@
       <c r="D518">
         <v>143543</v>
       </c>
-      <c r="E518" s="17">
+      <c r="E518" s="3">
         <v>43973</v>
       </c>
       <c r="F518">
@@ -21260,7 +21255,7 @@
       <c r="D519">
         <v>4868</v>
       </c>
-      <c r="E519" s="17">
+      <c r="E519" s="3">
         <v>43974</v>
       </c>
       <c r="F519">
@@ -21298,7 +21293,7 @@
       <c r="D520">
         <v>20383</v>
       </c>
-      <c r="E520" s="17">
+      <c r="E520" s="3">
         <v>43974</v>
       </c>
       <c r="F520">
@@ -21336,7 +21331,7 @@
       <c r="D521">
         <v>7338</v>
       </c>
-      <c r="E521" s="17">
+      <c r="E521" s="3">
         <v>43974</v>
       </c>
       <c r="F521">
@@ -21374,7 +21369,7 @@
       <c r="D522">
         <v>32964</v>
       </c>
-      <c r="E522" s="17">
+      <c r="E522" s="3">
         <v>43974</v>
       </c>
       <c r="F522">
@@ -21412,7 +21407,7 @@
       <c r="D523">
         <v>48348</v>
       </c>
-      <c r="E523" s="17">
+      <c r="E523" s="3">
         <v>43974</v>
       </c>
       <c r="F523">
@@ -21450,7 +21445,7 @@
       <c r="D524">
         <v>197225</v>
       </c>
-      <c r="E524" s="17">
+      <c r="E524" s="3">
         <v>43974</v>
       </c>
       <c r="F524">
@@ -21488,7 +21483,7 @@
       <c r="D525">
         <v>149566</v>
       </c>
-      <c r="E525" s="17">
+      <c r="E525" s="3">
         <v>43974</v>
       </c>
       <c r="F525">
@@ -21526,7 +21521,7 @@
       <c r="D526">
         <v>5103</v>
       </c>
-      <c r="E526" s="17">
+      <c r="E526" s="3">
         <v>43975</v>
       </c>
       <c r="F526">
@@ -21564,7 +21559,7 @@
       <c r="D527">
         <v>20987</v>
       </c>
-      <c r="E527" s="17">
+      <c r="E527" s="3">
         <v>43975</v>
       </c>
       <c r="F527">
@@ -21602,7 +21597,7 @@
       <c r="D528">
         <v>7443</v>
       </c>
-      <c r="E528" s="17">
+      <c r="E528" s="3">
         <v>43975</v>
       </c>
       <c r="F528">
@@ -21640,7 +21635,7 @@
       <c r="D529">
         <v>33936</v>
       </c>
-      <c r="E529" s="17">
+      <c r="E529" s="3">
         <v>43975</v>
       </c>
       <c r="F529">
@@ -21678,7 +21673,7 @@
       <c r="D530">
         <v>49780</v>
       </c>
-      <c r="E530" s="17">
+      <c r="E530" s="3">
         <v>43975</v>
       </c>
       <c r="F530">
@@ -21716,7 +21711,7 @@
       <c r="D531">
         <v>202456</v>
       </c>
-      <c r="E531" s="17">
+      <c r="E531" s="3">
         <v>43975</v>
       </c>
       <c r="F531">
@@ -21754,7 +21749,7 @@
       <c r="D532">
         <v>153902</v>
       </c>
-      <c r="E532" s="17">
+      <c r="E532" s="3">
         <v>43975</v>
       </c>
       <c r="F532">
@@ -21792,7 +21787,7 @@
       <c r="D533">
         <v>5225</v>
       </c>
-      <c r="E533" s="17">
+      <c r="E533" s="3">
         <v>43976</v>
       </c>
       <c r="F533">
@@ -21830,7 +21825,7 @@
       <c r="D534">
         <v>21401</v>
       </c>
-      <c r="E534" s="17">
+      <c r="E534" s="3">
         <v>43976</v>
       </c>
       <c r="F534">
@@ -21868,7 +21863,7 @@
       <c r="D535">
         <v>7574</v>
       </c>
-      <c r="E535" s="17">
+      <c r="E535" s="3">
         <v>43976</v>
       </c>
       <c r="F535">
@@ -21906,7 +21901,7 @@
       <c r="D536">
         <v>34379</v>
       </c>
-      <c r="E536" s="17">
+      <c r="E536" s="3">
         <v>43976</v>
       </c>
       <c r="F536">
@@ -21944,7 +21939,7 @@
       <c r="D537">
         <v>51587</v>
       </c>
-      <c r="E537" s="17">
+      <c r="E537" s="3">
         <v>43976</v>
       </c>
       <c r="F537">
@@ -21982,7 +21977,7 @@
       <c r="D538">
         <v>206041</v>
       </c>
-      <c r="E538" s="17">
+      <c r="E538" s="3">
         <v>43976</v>
       </c>
       <c r="F538">
@@ -22020,7 +22015,7 @@
       <c r="D539">
         <v>157449</v>
       </c>
-      <c r="E539" s="17">
+      <c r="E539" s="3">
         <v>43976</v>
       </c>
       <c r="F539">
@@ -22058,7 +22053,7 @@
       <c r="D540">
         <v>5341</v>
       </c>
-      <c r="E540" s="17">
+      <c r="E540" s="3">
         <v>43977</v>
       </c>
       <c r="F540">
@@ -22096,7 +22091,7 @@
       <c r="D541">
         <v>21597</v>
       </c>
-      <c r="E541" s="17">
+      <c r="E541" s="3">
         <v>43977</v>
       </c>
       <c r="F541">
@@ -22134,7 +22129,7 @@
       <c r="D542">
         <v>7652</v>
       </c>
-      <c r="E542" s="17">
+      <c r="E542" s="3">
         <v>43977</v>
       </c>
       <c r="F542">
@@ -22172,7 +22167,7 @@
       <c r="D543">
         <v>34964</v>
       </c>
-      <c r="E543" s="17">
+      <c r="E543" s="3">
         <v>43977</v>
       </c>
       <c r="F543">
@@ -22210,7 +22205,7 @@
       <c r="D544">
         <v>52783</v>
       </c>
-      <c r="E544" s="17">
+      <c r="E544" s="3">
         <v>43977</v>
       </c>
       <c r="F544">
@@ -22248,7 +22243,7 @@
       <c r="D545">
         <v>209270</v>
       </c>
-      <c r="E545" s="17">
+      <c r="E545" s="3">
         <v>43977</v>
       </c>
       <c r="F545">
@@ -22286,7 +22281,7 @@
       <c r="D546">
         <v>159301</v>
       </c>
-      <c r="E546" s="17">
+      <c r="E546" s="3">
         <v>43977</v>
       </c>
       <c r="F546">
@@ -22324,7 +22319,7 @@
       <c r="D547">
         <v>5379</v>
       </c>
-      <c r="E547" s="17">
+      <c r="E547" s="3">
         <v>43978</v>
       </c>
       <c r="F547">
@@ -22362,7 +22357,7 @@
       <c r="D548">
         <v>21866</v>
       </c>
-      <c r="E548" s="17">
+      <c r="E548" s="3">
         <v>43978</v>
       </c>
       <c r="F548">
@@ -22400,7 +22395,7 @@
       <c r="D549">
         <v>7761</v>
       </c>
-      <c r="E549" s="17">
+      <c r="E549" s="3">
         <v>43978</v>
       </c>
       <c r="F549">
@@ -22438,7 +22433,7 @@
       <c r="D550">
         <v>35551</v>
       </c>
-      <c r="E550" s="17">
+      <c r="E550" s="3">
         <v>43978</v>
       </c>
       <c r="F550">
@@ -22476,7 +22471,7 @@
       <c r="D551">
         <v>53917</v>
       </c>
-      <c r="E551" s="17">
+      <c r="E551" s="3">
         <v>43978</v>
       </c>
       <c r="F551">
@@ -22514,7 +22509,7 @@
       <c r="D552">
         <v>213297</v>
       </c>
-      <c r="E552" s="17">
+      <c r="E552" s="3">
         <v>43978</v>
       </c>
       <c r="F552">
@@ -22552,7 +22547,7 @@
       <c r="D553">
         <v>161628</v>
       </c>
-      <c r="E553" s="17">
+      <c r="E553" s="3">
         <v>43978</v>
       </c>
       <c r="F553">
@@ -22590,7 +22585,7 @@
       <c r="D554">
         <v>5501</v>
       </c>
-      <c r="E554" s="17">
+      <c r="E554" s="3">
         <v>43979</v>
       </c>
       <c r="F554">
@@ -22628,7 +22623,7 @@
       <c r="D555">
         <v>22200</v>
       </c>
-      <c r="E555" s="17">
+      <c r="E555" s="3">
         <v>43979</v>
       </c>
       <c r="F555">
@@ -22666,7 +22661,7 @@
       <c r="D556">
         <v>7945</v>
       </c>
-      <c r="E556" s="17">
+      <c r="E556" s="3">
         <v>43979</v>
       </c>
       <c r="F556">
@@ -22704,7 +22699,7 @@
       <c r="D557">
         <v>36108</v>
       </c>
-      <c r="E557" s="17">
+      <c r="E557" s="3">
         <v>43979</v>
       </c>
       <c r="F557">
@@ -22742,7 +22737,7 @@
       <c r="D558">
         <v>54801</v>
       </c>
-      <c r="E558" s="17">
+      <c r="E558" s="3">
         <v>43979</v>
       </c>
       <c r="F558">
@@ -22780,7 +22775,7 @@
       <c r="D559">
         <v>217726</v>
       </c>
-      <c r="E559" s="17">
+      <c r="E559" s="3">
         <v>43979</v>
       </c>
       <c r="F559">
@@ -22818,7 +22813,7 @@
       <c r="D560">
         <v>163805</v>
       </c>
-      <c r="E560" s="17">
+      <c r="E560" s="3">
         <v>43979</v>
       </c>
       <c r="F560">
@@ -22856,7 +22851,7 @@
       <c r="D561">
         <v>5738</v>
       </c>
-      <c r="E561" s="17">
+      <c r="E561" s="3">
         <v>43980</v>
       </c>
       <c r="F561">
@@ -22894,7 +22889,7 @@
       <c r="D562">
         <v>22641</v>
       </c>
-      <c r="E562" s="17">
+      <c r="E562" s="3">
         <v>43980</v>
       </c>
       <c r="F562">
@@ -22932,7 +22927,7 @@
       <c r="D563">
         <v>8064</v>
       </c>
-      <c r="E563" s="17">
+      <c r="E563" s="3">
         <v>43980</v>
       </c>
       <c r="F563">
@@ -22970,7 +22965,7 @@
       <c r="D564">
         <v>36713</v>
       </c>
-      <c r="E564" s="17">
+      <c r="E564" s="3">
         <v>43980</v>
       </c>
       <c r="F564">
@@ -23008,7 +23003,7 @@
       <c r="D565">
         <v>55881</v>
       </c>
-      <c r="E565" s="17">
+      <c r="E565" s="3">
         <v>43980</v>
       </c>
       <c r="F565">
@@ -23046,7 +23041,7 @@
       <c r="D566">
         <v>223074</v>
       </c>
-      <c r="E566" s="17">
+      <c r="E566" s="3">
         <v>43980</v>
       </c>
       <c r="F566">
@@ -23084,7 +23079,7 @@
       <c r="D567">
         <v>167906</v>
       </c>
-      <c r="E567" s="17">
+      <c r="E567" s="3">
         <v>43980</v>
       </c>
       <c r="F567">
@@ -23122,7 +23117,7 @@
       <c r="D568">
         <v>5975</v>
       </c>
-      <c r="E568" s="17">
+      <c r="E568" s="3">
         <v>43981</v>
       </c>
       <c r="F568">
@@ -23160,7 +23155,7 @@
       <c r="D569">
         <v>23394</v>
       </c>
-      <c r="E569" s="17">
+      <c r="E569" s="3">
         <v>43981</v>
       </c>
       <c r="F569">
@@ -23198,7 +23193,7 @@
       <c r="D570">
         <v>8208</v>
       </c>
-      <c r="E570" s="17">
+      <c r="E570" s="3">
         <v>43981</v>
       </c>
       <c r="F570">
@@ -23236,7 +23231,7 @@
       <c r="D571">
         <v>37728</v>
       </c>
-      <c r="E571" s="17">
+      <c r="E571" s="3">
         <v>43981</v>
       </c>
       <c r="F571">
@@ -23274,7 +23269,7 @@
       <c r="D572">
         <v>57095</v>
       </c>
-      <c r="E572" s="17">
+      <c r="E572" s="3">
         <v>43981</v>
       </c>
       <c r="F572">
@@ -23312,7 +23307,7 @@
       <c r="D573">
         <v>228415</v>
       </c>
-      <c r="E573" s="17">
+      <c r="E573" s="3">
         <v>43981</v>
       </c>
       <c r="F573">
@@ -23350,7 +23345,7 @@
       <c r="D574">
         <v>171222</v>
       </c>
-      <c r="E574" s="17">
+      <c r="E574" s="3">
         <v>43981</v>
       </c>
       <c r="F574">
@@ -23388,7 +23383,7 @@
       <c r="D575">
         <v>6260</v>
       </c>
-      <c r="E575" s="17">
+      <c r="E575" s="3">
         <v>43982</v>
       </c>
       <c r="F575">
@@ -23426,7 +23421,7 @@
       <c r="D576">
         <v>23977</v>
       </c>
-      <c r="E576" s="17">
+      <c r="E576" s="3">
         <v>43982</v>
       </c>
       <c r="F576">
@@ -23464,7 +23459,7 @@
       <c r="D577">
         <v>8451</v>
       </c>
-      <c r="E577" s="17">
+      <c r="E577" s="3">
         <v>43982</v>
       </c>
       <c r="F577">
@@ -23502,7 +23497,7 @@
       <c r="D578">
         <v>39269</v>
       </c>
-      <c r="E578" s="17">
+      <c r="E578" s="3">
         <v>43982</v>
       </c>
       <c r="F578">
@@ -23540,7 +23535,7 @@
       <c r="D579">
         <v>58685</v>
       </c>
-      <c r="E579" s="17">
+      <c r="E579" s="3">
         <v>43982</v>
       </c>
       <c r="F579">
@@ -23578,7 +23573,7 @@
       <c r="D580">
         <v>233685</v>
       </c>
-      <c r="E580" s="17">
+      <c r="E580" s="3">
         <v>43982</v>
       </c>
       <c r="F580">
@@ -23616,7 +23611,7 @@
       <c r="D581">
         <v>176703</v>
       </c>
-      <c r="E581" s="17">
+      <c r="E581" s="3">
         <v>43982</v>
       </c>
       <c r="F581">
@@ -23654,7 +23649,7 @@
       <c r="D582">
         <v>6583</v>
       </c>
-      <c r="E582" s="17">
+      <c r="E582" s="3">
         <v>43983</v>
       </c>
       <c r="F582">
@@ -23692,7 +23687,7 @@
       <c r="D583">
         <v>24470</v>
       </c>
-      <c r="E583" s="17">
+      <c r="E583" s="3">
         <v>43983</v>
       </c>
       <c r="F583">
@@ -23730,7 +23725,7 @@
       <c r="D584">
         <v>8602</v>
       </c>
-      <c r="E584" s="17">
+      <c r="E584" s="3">
         <v>43983</v>
       </c>
       <c r="F584">
@@ -23768,7 +23763,7 @@
       <c r="D585">
         <v>40604</v>
       </c>
-      <c r="E585" s="17">
+      <c r="E585" s="3">
         <v>43983</v>
       </c>
       <c r="F585">
@@ -23806,7 +23801,7 @@
       <c r="D586">
         <v>60901</v>
       </c>
-      <c r="E586" s="17">
+      <c r="E586" s="3">
         <v>43983</v>
       </c>
       <c r="F586">
@@ -23844,7 +23839,7 @@
       <c r="D587">
         <v>239173</v>
       </c>
-      <c r="E587" s="17">
+      <c r="E587" s="3">
         <v>43983</v>
       </c>
       <c r="F587">
@@ -23882,7 +23877,7 @@
       <c r="D588">
         <v>180803</v>
       </c>
-      <c r="E588" s="17">
+      <c r="E588" s="3">
         <v>43983</v>
       </c>
       <c r="F588">
@@ -23920,7 +23915,7 @@
       <c r="D589">
         <v>6696</v>
       </c>
-      <c r="E589" s="17">
+      <c r="E589" s="3">
         <v>43984</v>
       </c>
       <c r="F589">
@@ -23958,7 +23953,7 @@
       <c r="D590">
         <v>25375</v>
       </c>
-      <c r="E590" s="17">
+      <c r="E590" s="3">
         <v>43984</v>
       </c>
       <c r="F590">
@@ -23996,7 +23991,7 @@
       <c r="D591">
         <v>8863</v>
       </c>
-      <c r="E591" s="17">
+      <c r="E591" s="3">
         <v>43984</v>
       </c>
       <c r="F591">
@@ -24034,7 +24029,7 @@
       <c r="D592">
         <v>41876</v>
       </c>
-      <c r="E592" s="17">
+      <c r="E592" s="3">
         <v>43984</v>
       </c>
       <c r="F592">
@@ -24072,7 +24067,7 @@
       <c r="D593">
         <v>62528</v>
       </c>
-      <c r="E593" s="17">
+      <c r="E593" s="3">
         <v>43984</v>
       </c>
       <c r="F593">
@@ -24110,7 +24105,7 @@
       <c r="D594">
         <v>245544</v>
       </c>
-      <c r="E594" s="17">
+      <c r="E594" s="3">
         <v>43984</v>
       </c>
       <c r="F594">
@@ -24148,7 +24143,7 @@
       <c r="D595">
         <v>187092</v>
       </c>
-      <c r="E595" s="17">
+      <c r="E595" s="3">
         <v>43984</v>
       </c>
       <c r="F595">
@@ -24186,7 +24181,7 @@
       <c r="D596">
         <v>7008</v>
       </c>
-      <c r="E596" s="17">
+      <c r="E596" s="3">
         <v>43985</v>
       </c>
       <c r="F596">
@@ -24224,7 +24219,7 @@
       <c r="D597">
         <v>26218</v>
       </c>
-      <c r="E597" s="17">
+      <c r="E597" s="3">
         <v>43985</v>
       </c>
       <c r="F597">
@@ -24262,7 +24257,7 @@
       <c r="D598">
         <v>9197</v>
       </c>
-      <c r="E598" s="17">
+      <c r="E598" s="3">
         <v>43985</v>
       </c>
       <c r="F598">
@@ -24300,7 +24295,7 @@
       <c r="D599">
         <v>43418</v>
       </c>
-      <c r="E599" s="17">
+      <c r="E599" s="3">
         <v>43985</v>
       </c>
       <c r="F599">
@@ -24338,7 +24333,7 @@
       <c r="D600">
         <v>64488</v>
       </c>
-      <c r="E600" s="17">
+      <c r="E600" s="3">
         <v>43985</v>
       </c>
       <c r="F600">
@@ -24376,7 +24371,7 @@
       <c r="D601">
         <v>252469</v>
       </c>
-      <c r="E601" s="17">
+      <c r="E601" s="3">
         <v>43985</v>
       </c>
       <c r="F601">
@@ -24414,7 +24409,7 @@
       <c r="D602">
         <v>192546</v>
       </c>
-      <c r="E602" s="17">
+      <c r="E602" s="3">
         <v>43985</v>
       </c>
       <c r="F602">
@@ -24452,7 +24447,7 @@
       <c r="D603">
         <v>7287</v>
       </c>
-      <c r="E603" s="17">
+      <c r="E603" s="3">
         <v>43986</v>
       </c>
       <c r="F603">
@@ -24490,7 +24485,7 @@
       <c r="D604">
         <v>27301</v>
       </c>
-      <c r="E604" s="17">
+      <c r="E604" s="3">
         <v>43986</v>
       </c>
       <c r="F604">
@@ -24528,7 +24523,7 @@
       <c r="D605">
         <v>9435</v>
       </c>
-      <c r="E605" s="17">
+      <c r="E605" s="3">
         <v>43986</v>
       </c>
       <c r="F605">
@@ -24566,7 +24561,7 @@
       <c r="D606">
         <v>45760</v>
       </c>
-      <c r="E606" s="17">
+      <c r="E606" s="3">
         <v>43986</v>
       </c>
       <c r="F606">
@@ -24604,7 +24599,7 @@
       <c r="D607">
         <v>66381</v>
       </c>
-      <c r="E607" s="17">
+      <c r="E607" s="3">
         <v>43986</v>
       </c>
       <c r="F607">
@@ -24642,7 +24637,7 @@
       <c r="D608">
         <v>259254</v>
       </c>
-      <c r="E608" s="17">
+      <c r="E608" s="3">
         <v>43986</v>
       </c>
       <c r="F608">
@@ -24680,7 +24675,7 @@
       <c r="D609">
         <v>200093</v>
       </c>
-      <c r="E609" s="17">
+      <c r="E609" s="3">
         <v>43986</v>
       </c>
       <c r="F609">
@@ -24718,7 +24713,7 @@
       <c r="D610">
         <v>7613</v>
       </c>
-      <c r="E610" s="17">
+      <c r="E610" s="3">
         <v>43987</v>
       </c>
       <c r="F610">
@@ -24756,7 +24751,7 @@
       <c r="D611">
         <v>28099</v>
       </c>
-      <c r="E611" s="17">
+      <c r="E611" s="3">
         <v>43987</v>
       </c>
       <c r="F611">
@@ -24794,7 +24789,7 @@
       <c r="D612">
         <v>9641</v>
       </c>
-      <c r="E612" s="17">
+      <c r="E612" s="3">
         <v>43987</v>
       </c>
       <c r="F612">
@@ -24832,7 +24827,7 @@
       <c r="D613">
         <v>48546</v>
       </c>
-      <c r="E613" s="17">
+      <c r="E613" s="3">
         <v>43987</v>
       </c>
       <c r="F613">
@@ -24870,7 +24865,7 @@
       <c r="D614">
         <v>68982</v>
       </c>
-      <c r="E614" s="17">
+      <c r="E614" s="3">
         <v>43987</v>
       </c>
       <c r="F614">
@@ -24908,7 +24903,7 @@
       <c r="D615">
         <v>266959</v>
       </c>
-      <c r="E615" s="17">
+      <c r="E615" s="3">
         <v>43987</v>
       </c>
       <c r="F615">
@@ -24946,7 +24941,7 @@
       <c r="D616">
         <v>208483</v>
       </c>
-      <c r="E616" s="17">
+      <c r="E616" s="3">
         <v>43987</v>
       </c>
       <c r="F616">
@@ -24984,7 +24979,7 @@
       <c r="D617">
         <v>7934</v>
       </c>
-      <c r="E617" s="17">
+      <c r="E617" s="3">
         <v>43988</v>
       </c>
       <c r="F617">
@@ -25022,7 +25017,7 @@
       <c r="D618">
         <v>28652</v>
       </c>
-      <c r="E618" s="17">
+      <c r="E618" s="3">
         <v>43988</v>
       </c>
       <c r="F618">
@@ -25060,7 +25055,7 @@
       <c r="D619">
         <v>9859</v>
       </c>
-      <c r="E619" s="17">
+      <c r="E619" s="3">
         <v>43988</v>
       </c>
       <c r="F619">
@@ -25098,7 +25093,7 @@
       <c r="D620">
         <v>51376</v>
       </c>
-      <c r="E620" s="17">
+      <c r="E620" s="3">
         <v>43988</v>
       </c>
       <c r="F620">
@@ -25136,7 +25131,7 @@
       <c r="D621">
         <v>71688</v>
       </c>
-      <c r="E621" s="17">
+      <c r="E621" s="3">
         <v>43988</v>
       </c>
       <c r="F621">
@@ -25174,7 +25169,7 @@
       <c r="D622">
         <v>275139</v>
       </c>
-      <c r="E622" s="17">
+      <c r="E622" s="3">
         <v>43988</v>
       </c>
       <c r="F622">
@@ -25212,7 +25207,7 @@
       <c r="D623">
         <v>215860</v>
       </c>
-      <c r="E623" s="17">
+      <c r="E623" s="3">
         <v>43988</v>
       </c>
       <c r="F623">
@@ -25250,7 +25245,7 @@
       <c r="D624">
         <v>8342</v>
       </c>
-      <c r="E624" s="17">
+      <c r="E624" s="3">
         <v>43989</v>
       </c>
       <c r="F624">
@@ -25288,7 +25283,7 @@
       <c r="D625">
         <v>30087</v>
       </c>
-      <c r="E625" s="17">
+      <c r="E625" s="3">
         <v>43989</v>
       </c>
       <c r="F625">
@@ -25326,7 +25321,7 @@
       <c r="D626">
         <v>10058</v>
       </c>
-      <c r="E626" s="17">
+      <c r="E626" s="3">
         <v>43989</v>
       </c>
       <c r="F626">
@@ -25364,7 +25359,7 @@
       <c r="D627">
         <v>54675</v>
       </c>
-      <c r="E627" s="17">
+      <c r="E627" s="3">
         <v>43989</v>
       </c>
       <c r="F627">
@@ -25402,7 +25397,7 @@
       <c r="D628">
         <v>74749</v>
       </c>
-      <c r="E628" s="17">
+      <c r="E628" s="3">
         <v>43989</v>
       </c>
       <c r="F628">
@@ -25440,7 +25435,7 @@
       <c r="D629">
         <v>282807</v>
       </c>
-      <c r="E629" s="17">
+      <c r="E629" s="3">
         <v>43989</v>
       </c>
       <c r="F629">
@@ -25478,7 +25473,7 @@
       <c r="D630">
         <v>222890</v>
       </c>
-      <c r="E630" s="17">
+      <c r="E630" s="3">
         <v>43989</v>
       </c>
       <c r="F630">
@@ -25516,7 +25511,7 @@
       <c r="D631">
         <v>9573</v>
       </c>
-      <c r="E631" s="17">
+      <c r="E631" s="3">
         <v>43993</v>
       </c>
       <c r="F631">
@@ -25554,7 +25549,7 @@
       <c r="D632">
         <v>34153</v>
       </c>
-      <c r="E632" s="17">
+      <c r="E632" s="3">
         <v>43993</v>
       </c>
       <c r="F632">
@@ -25592,7 +25587,7 @@
       <c r="D633">
         <v>10650</v>
       </c>
-      <c r="E633" s="17">
+      <c r="E633" s="3">
         <v>43993</v>
       </c>
       <c r="F633">
@@ -25630,7 +25625,7 @@
       <c r="D634">
         <v>66040</v>
       </c>
-      <c r="E634" s="17">
+      <c r="E634" s="3">
         <v>43993</v>
       </c>
       <c r="F634">
@@ -25668,7 +25663,7 @@
       <c r="D635">
         <v>86899</v>
       </c>
-      <c r="E635" s="17">
+      <c r="E635" s="3">
         <v>43993</v>
       </c>
       <c r="F635">
@@ -25706,7 +25701,7 @@
       <c r="D636">
         <v>317893</v>
       </c>
-      <c r="E636" s="17">
+      <c r="E636" s="3">
         <v>43993</v>
       </c>
       <c r="F636">
@@ -25744,7 +25739,7 @@
       <c r="D637">
         <v>255617</v>
       </c>
-      <c r="E637" s="17">
+      <c r="E637" s="3">
         <v>43993</v>
       </c>
       <c r="F637">
@@ -25782,7 +25777,7 @@
       <c r="D638">
         <v>9942</v>
       </c>
-      <c r="E638" s="17">
+      <c r="E638" s="3">
         <v>43994</v>
       </c>
       <c r="F638">
@@ -25820,7 +25815,7 @@
       <c r="D639">
         <v>35412</v>
       </c>
-      <c r="E639" s="17">
+      <c r="E639" s="3">
         <v>43994</v>
       </c>
       <c r="F639">
@@ -25858,7 +25853,7 @@
       <c r="D640">
         <v>10769</v>
       </c>
-      <c r="E640" s="17">
+      <c r="E640" s="3">
         <v>43994</v>
       </c>
       <c r="F640">
@@ -25896,7 +25891,7 @@
       <c r="D641">
         <v>69806</v>
       </c>
-      <c r="E641" s="17">
+      <c r="E641" s="3">
         <v>43994</v>
       </c>
       <c r="F641">
@@ -25934,7 +25929,7 @@
       <c r="D642">
         <v>90470</v>
       </c>
-      <c r="E642" s="17">
+      <c r="E642" s="3">
         <v>43994</v>
       </c>
       <c r="F642">
@@ -25972,7 +25967,7 @@
       <c r="D643">
         <v>327072</v>
       </c>
-      <c r="E643" s="17">
+      <c r="E643" s="3">
         <v>43994</v>
       </c>
       <c r="F643">
@@ -26010,7 +26005,7 @@
       <c r="D644">
         <v>265698</v>
       </c>
-      <c r="E644" s="17">
+      <c r="E644" s="3">
         <v>43994</v>
       </c>
       <c r="F644">
